--- a/med — копия.xlsx
+++ b/med — копия.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Repos\medConvert\bin\Debug\netcoreapp3.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Repos\medConvert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3F24599-4EF7-43CD-B2D4-6BE6A1C4E7C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55852E6D-24FD-4FE7-9D83-CF62238DA52B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="3435" windowWidth="24240" windowHeight="13140" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="+ОБиП" sheetId="17" r:id="rId1"/>
@@ -21,13 +21,13 @@
     <sheet name="+ПЦ" sheetId="20" r:id="rId6"/>
     <sheet name="+ПрочиеО" sheetId="21" r:id="rId7"/>
     <sheet name="+ДР" sheetId="19" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="23" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'+ОБиП'!$A$4:$AD$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'+ПрочиеО'!$A$4:$P$4</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -138,7 +138,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="181">
   <si>
     <t>Наименование</t>
   </si>
@@ -560,9 +560,6 @@
     <t>Братская стоматологическая поликлиника №3</t>
   </si>
   <si>
-    <t>Братская стомотологическая поликлиника №1</t>
-  </si>
-  <si>
     <t>Усть-илимская городская детская поликлиника</t>
   </si>
   <si>
@@ -682,6 +679,9 @@
   <si>
     <t>ПРОЧИЕ ОБЛАСТНЫЕ УЧРЕЖДЕНИЯ</t>
   </si>
+  <si>
+    <t>Братская стоматологическая поликлиника №1</t>
+  </si>
 </sst>
 </file>
 
@@ -689,12 +689,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,6 +912,22 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -939,7 +955,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1689,6 +1705,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1697,44 +1737,44 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="277">
+  <cellXfs count="288">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="10" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="12" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="33" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="33" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1746,19 +1786,19 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1767,7 +1807,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1783,42 +1823,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="14" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1828,13 +1868,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1855,22 +1895,22 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="58" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="49" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="49" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="18" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1879,16 +1919,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1897,22 +1937,22 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1921,7 +1961,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1930,7 +1970,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1938,19 +1978,19 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="19" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="40" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="40" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1977,19 +2017,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2025,13 +2065,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2052,7 +2092,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2064,37 +2104,37 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="20" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="21" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="23" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2115,25 +2155,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="43" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="34" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="50" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="50" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="10" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2145,46 +2185,46 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="60" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="56" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="15" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="41" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2193,25 +2233,25 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="14" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2220,27 +2260,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="23" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="59" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2249,25 +2289,25 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="4" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2276,67 +2316,67 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="16" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="9" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2345,13 +2385,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="24" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="5" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="20" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2360,31 +2400,31 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="26" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="25" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="0" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="26" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="26" fillId="0" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2435,6 +2475,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2444,77 +2496,98 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="55" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="56" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="56" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="53" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2851,20 +2924,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA60"/>
+  <dimension ref="A1:AD60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE23" sqref="AE23"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5:AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="7.7109375" style="42"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -2890,10 +2964,10 @@
       <c r="W1" s="82"/>
       <c r="X1" s="82"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:27" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="103" t="s">
         <v>0</v>
@@ -2904,43 +2978,43 @@
       <c r="D3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="255" t="s">
+      <c r="E3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="255" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="258" t="s">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="250" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="255" t="s">
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="252" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="256"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="255" t="s">
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="250" t="s">
         <v>160</v>
       </c>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="250" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="252"/>
-    </row>
-    <row r="4" spans="1:27" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="250" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
+      <c r="Y3" s="254" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="256"/>
+    </row>
+    <row r="4" spans="1:30" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102"/>
       <c r="B4" s="104"/>
       <c r="C4" s="106"/>
@@ -3005,15 +3079,15 @@
       <c r="X4" s="240">
         <v>2018</v>
       </c>
-      <c r="Y4" s="254" t="s">
+      <c r="Y4" s="257" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z4" s="258"/>
+      <c r="AA4" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" s="253"/>
-      <c r="AA4" s="149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <f t="shared" ref="A5:A29" si="0">+A4+1</f>
         <v>1</v>
@@ -3088,24 +3162,36 @@
         <v>76.043122949999997</v>
       </c>
       <c r="Y5" s="127">
-        <f>+X5-L5*Z5*12/1000000</f>
+        <f t="shared" ref="Y5:Y29" si="1">+X5-L5*Z5*12/1000000</f>
         <v>-2.768533050000002</v>
       </c>
       <c r="Z5" s="6">
         <v>42647</v>
       </c>
       <c r="AA5" s="127">
-        <f>+X5-H5*0.9*Z5*12/1000000</f>
+        <f t="shared" ref="AA5:AA29" si="2">+X5-H5*0.9*Z5*12/1000000</f>
         <v>-33.116138249999992</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>73449.37</v>
+      </c>
+      <c r="AC5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>42585.57</v>
+      </c>
+      <c r="AD5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>42585.68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>5</v>
@@ -3174,18 +3260,30 @@
         <v>263.47931752</v>
       </c>
       <c r="Y6" s="130">
-        <f>+X6-L6*Z6*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>25.509057519999999</v>
       </c>
       <c r="Z6" s="6">
         <v>42647</v>
       </c>
       <c r="AA6" s="127">
-        <f>+X6-H6*0.9*Z6*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-107.29370047999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <f>VLOOKUP(B6,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>77475</v>
+      </c>
+      <c r="AC6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>39137</v>
+      </c>
+      <c r="AD6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>39022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -3260,18 +3358,30 @@
         <v>260.87350554</v>
       </c>
       <c r="Y7" s="130">
-        <f>+X7-L7*Z7*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>5.5032695399999909</v>
       </c>
       <c r="Z7" s="6">
         <v>42647</v>
       </c>
       <c r="AA7" s="127">
-        <f>+X7-H7*0.9*Z7*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-195.79909986000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f>VLOOKUP(B7,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>77322.44</v>
+      </c>
+      <c r="AC7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>39293.14</v>
+      </c>
+      <c r="AD7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>39677.410000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -3346,18 +3456,30 @@
         <v>320.72823031999997</v>
       </c>
       <c r="Y8" s="130">
-        <f>+X8-L8*Z8*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>29.022750319999943</v>
       </c>
       <c r="Z8" s="6">
         <v>42647</v>
       </c>
       <c r="AA8" s="127">
-        <f>+X8-H8*0.9*Z8*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-127.42350447999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <f>VLOOKUP(B8,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>72924.88</v>
+      </c>
+      <c r="AC8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>36550.9</v>
+      </c>
+      <c r="AD8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>36189.050000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3432,18 +3554,30 @@
         <v>563.21551061000002</v>
       </c>
       <c r="Y9" s="130">
-        <f>+X9-L9*Z9*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>38.657410610000056</v>
       </c>
       <c r="Z9" s="6">
         <v>42647</v>
       </c>
       <c r="AA9" s="127">
-        <f>+X9-H9*0.9*Z9*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-173.95494318999988</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <f>VLOOKUP(B9,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>72511.3</v>
+      </c>
+      <c r="AC9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>40495.97</v>
+      </c>
+      <c r="AD9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>40556.54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3518,18 +3652,30 @@
         <v>203.40407543999999</v>
       </c>
       <c r="Y10" s="130">
-        <f>+X10-L10*Z10*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>6.8866994399999726</v>
       </c>
       <c r="Z10" s="6">
         <v>42647</v>
       </c>
       <c r="AA10" s="127">
-        <f>+X10-H10*0.9*Z10*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-51.300867359999984</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <f>VLOOKUP(B10,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>69760.17</v>
+      </c>
+      <c r="AC10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>36221.21</v>
+      </c>
+      <c r="AD10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>35983.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3604,24 +3750,36 @@
         <v>38.515163130000005</v>
       </c>
       <c r="Y11" s="127">
-        <f>+X11-L11*Z11*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-0.89066486999999483</v>
       </c>
       <c r="Z11" s="6">
         <v>42647</v>
       </c>
       <c r="AA11" s="127">
-        <f>+X11-H11*0.9*Z11*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-10.422269369999995</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <f>VLOOKUP(B11,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>54030.75</v>
+      </c>
+      <c r="AC11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>37375.18</v>
+      </c>
+      <c r="AD11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>5</v>
@@ -3690,18 +3848,30 @@
         <v>1528.9525885799999</v>
       </c>
       <c r="Y12" s="126">
-        <f>+X12-L12*Z12*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>196.83089657999994</v>
       </c>
       <c r="Z12" s="6">
         <v>42647</v>
       </c>
       <c r="AA12" s="127">
-        <f>+X12-H12*0.9*Z12*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-488.42109942000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <f>VLOOKUP(B12,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>82754</v>
+      </c>
+      <c r="AC12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>42456</v>
+      </c>
+      <c r="AD12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>42409</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="46.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3776,24 +3946,36 @@
         <v>18.86570704</v>
       </c>
       <c r="Y13" s="127">
-        <f>+X13-L13*Z13*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-3.6519089600000001</v>
       </c>
       <c r="Z13" s="6">
         <v>42647</v>
       </c>
       <c r="AA13" s="127">
-        <f>+X13-H13*0.9*Z13*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-17.981300960000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <f>VLOOKUP(B13,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>39547.300000000003</v>
+      </c>
+      <c r="AC13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>29595.4</v>
+      </c>
+      <c r="AD13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>62</v>
@@ -3862,18 +4044,30 @@
         <v>401.46739070999996</v>
       </c>
       <c r="Y14" s="126">
-        <f>+X14-L14*Z14*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>170.66182670999996</v>
       </c>
       <c r="Z14" s="6">
         <v>42647</v>
       </c>
       <c r="AA14" s="148">
-        <f>+X14-H14*0.9*Z14*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>65.238442709999958</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <f>VLOOKUP(B14,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>98597.75</v>
+      </c>
+      <c r="AC14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>56143.61</v>
+      </c>
+      <c r="AD14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3948,18 +4142,30 @@
         <v>328.17787850000002</v>
       </c>
       <c r="Y15" s="126">
-        <f>+X15-L15*Z15*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>13.443018499999994</v>
       </c>
       <c r="Z15" s="6">
         <v>42647</v>
       </c>
       <c r="AA15" s="127">
-        <f>+X15-H15*0.9*Z15*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-195.85566340000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <f>VLOOKUP(B15,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>73118</v>
+      </c>
+      <c r="AC15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>38020</v>
+      </c>
+      <c r="AD15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>37844</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -4034,24 +4240,36 @@
         <v>30</v>
       </c>
       <c r="Y16" s="126">
-        <f>+X16-L16*Z16*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>3.9000360000000001</v>
       </c>
       <c r="Z16" s="6">
         <v>42647</v>
       </c>
       <c r="AA16" s="127">
-        <f>+X16-H16*0.9*Z16*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-18.707138700000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <f>VLOOKUP(B16,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>63939.02</v>
+      </c>
+      <c r="AC16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>35433.07</v>
+      </c>
+      <c r="AD16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>35433.33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>5</v>
@@ -4120,24 +4338,36 @@
         <v>6.6963221200000005</v>
       </c>
       <c r="Y17" s="126">
-        <f>+X17-L17*Z17*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.5786821200000007</v>
       </c>
       <c r="Z17" s="6">
         <v>42647</v>
       </c>
       <c r="AA17" s="127">
-        <f>+X17-H17*0.9*Z17*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-2.2851360799999982</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <f>VLOOKUP(B17,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>37020.800000000003</v>
+      </c>
+      <c r="AC17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>5</v>
@@ -4206,18 +4436,30 @@
         <v>118.76098682999999</v>
       </c>
       <c r="Y18" s="126">
-        <f>+X18-L18*Z18*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>12.314074829999996</v>
       </c>
       <c r="Z18" s="6">
         <v>42647</v>
       </c>
       <c r="AA18" s="127">
-        <f>+X18-H18*0.9*Z18*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-15.154857869999987</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <f>VLOOKUP(B18,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>60952.09</v>
+      </c>
+      <c r="AC18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>40538.86</v>
+      </c>
+      <c r="AD18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -4292,18 +4534,30 @@
         <v>84.153103920000007</v>
       </c>
       <c r="Y19" s="127">
-        <f>+X19-L19*Z19*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-23.829100079999989</v>
       </c>
       <c r="Z19" s="6">
         <v>42647</v>
       </c>
       <c r="AA19" s="127">
-        <f>+X19-H19*0.9*Z19*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-66.804481979999991</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <f>VLOOKUP(B19,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>58846</v>
+      </c>
+      <c r="AC19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33749</v>
+      </c>
+      <c r="AD19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>33752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -4378,18 +4632,30 @@
         <v>225.30485066</v>
       </c>
       <c r="Y20" s="127">
-        <f>+X20-L20*Z20*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-30.577149340000005</v>
       </c>
       <c r="Z20" s="6">
         <v>42647</v>
       </c>
       <c r="AA20" s="127">
-        <f>+X20-H20*0.9*Z20*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-108.62115934000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <f>VLOOKUP(B20,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>74515</v>
+      </c>
+      <c r="AC20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>31838</v>
+      </c>
+      <c r="AD20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>31836</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -4464,18 +4730,30 @@
         <v>89.471063470000004</v>
       </c>
       <c r="Y21" s="127">
-        <f>+X21-L21*Z21*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-11.858208529999999</v>
       </c>
       <c r="Z21" s="6">
         <v>42647</v>
       </c>
       <c r="AA21" s="127">
-        <f>+X21-H21*0.9*Z21*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-31.89376913000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <f>VLOOKUP(B21,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>71007</v>
+      </c>
+      <c r="AC21">
+        <f>VLOOKUP($B21,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>39990</v>
+      </c>
+      <c r="AD21">
+        <f>VLOOKUP($B21,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>39989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -4550,18 +4828,30 @@
         <v>40.877929969999997</v>
       </c>
       <c r="Y22" s="126">
-        <f>+X22-L22*Z22*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.44857396999999821</v>
       </c>
       <c r="Z22" s="6">
         <v>42647</v>
       </c>
       <c r="AA22" s="127">
-        <f>+X22-H22*0.9*Z22*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-22.22257123</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <f>VLOOKUP(B22,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>59020.54</v>
+      </c>
+      <c r="AC22">
+        <f>VLOOKUP($B22,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>32330.47</v>
+      </c>
+      <c r="AD22">
+        <f>VLOOKUP($B22,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -4636,24 +4926,36 @@
         <v>95.343312980000007</v>
       </c>
       <c r="Y23" s="127">
-        <f>+X23-L23*Z23*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-79.168211020000001</v>
       </c>
       <c r="Z23" s="6">
         <v>42647</v>
       </c>
       <c r="AA23" s="127">
-        <f>+X23-H23*0.9*Z23*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-204.84465532000002</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <f>VLOOKUP(B23,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>51673.46</v>
+      </c>
+      <c r="AC23">
+        <f>VLOOKUP($B23,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>35471.839999999997</v>
+      </c>
+      <c r="AD23">
+        <f>VLOOKUP($B23,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>35796.51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B24" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" s="21" t="s">
         <v>5</v>
@@ -4722,24 +5024,36 @@
         <v>846.11934753000003</v>
       </c>
       <c r="Y24" s="126">
-        <f>+X24-L24*Z24*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>73.355707530000018</v>
       </c>
       <c r="Z24" s="6">
         <v>42647</v>
       </c>
       <c r="AA24" s="127">
-        <f>+X24-H24*0.9*Z24*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-407.94554037</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <f>VLOOKUP(B24,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>88927</v>
+      </c>
+      <c r="AC24">
+        <f>VLOOKUP($B24,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>38564</v>
+      </c>
+      <c r="AD24">
+        <f>VLOOKUP($B24,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>38768</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C25" s="21" t="s">
         <v>62</v>
@@ -4808,18 +5122,30 @@
         <v>31.850959379999999</v>
       </c>
       <c r="Y25" s="126">
-        <f>+X25-L25*Z25*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>10.295698661799197</v>
       </c>
       <c r="Z25" s="6">
         <v>42647</v>
       </c>
       <c r="AA25" s="127">
-        <f>+X25-H25*0.9*Z25*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>9.973048379999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <f>VLOOKUP(B25,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>97900</v>
+      </c>
+      <c r="AC25">
+        <f>VLOOKUP($B25,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>54200</v>
+      </c>
+      <c r="AD25">
+        <f>VLOOKUP($B25,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -4894,18 +5220,30 @@
         <v>12.5528</v>
       </c>
       <c r="Y26" s="127">
-        <f>+X26-L26*Z26*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-26.341264000000002</v>
       </c>
       <c r="Z26" s="6">
         <v>42647</v>
       </c>
       <c r="AA26" s="127">
-        <f>+X26-H26*0.9*Z26*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-29.130377799999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <f>VLOOKUP(B26,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>48684.5</v>
+      </c>
+      <c r="AC26">
+        <f>VLOOKUP($B26,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33149</v>
+      </c>
+      <c r="AD26">
+        <f>VLOOKUP($B26,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>41083</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -4980,18 +5318,30 @@
         <v>55.615865319999997</v>
       </c>
       <c r="Y27" s="126">
-        <f>+X27-L27*Z27*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>1.8806453199999993</v>
       </c>
       <c r="Z27" s="6">
         <v>42647</v>
       </c>
       <c r="AA27" s="127">
-        <f>+X27-H27*0.9*Z27*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-23.835495680000008</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <f>VLOOKUP(B27,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>68578.7</v>
+      </c>
+      <c r="AC27">
+        <f>VLOOKUP($B27,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>35907.67</v>
+      </c>
+      <c r="AD27">
+        <f>VLOOKUP($B27,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>35877.86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5066,18 +5416,30 @@
         <v>22.343989520000001</v>
       </c>
       <c r="Y28" s="126">
-        <f>+X28-L28*Z28*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>3.4087215200000003</v>
       </c>
       <c r="Z28" s="6">
         <v>42647</v>
       </c>
       <c r="AA28" s="127">
-        <f>+X28-H28*0.9*Z28*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-0.6853904799999988</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB28">
+        <f>VLOOKUP(B28,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>56955.7</v>
+      </c>
+      <c r="AC28">
+        <f>VLOOKUP($B28,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>34025.4</v>
+      </c>
+      <c r="AD28">
+        <f>VLOOKUP($B28,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5152,54 +5514,66 @@
         <v>66.473383179999999</v>
       </c>
       <c r="Y29" s="126">
-        <f>+X29-L29*Z29*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>0.45582718</v>
       </c>
       <c r="Z29" s="6">
         <v>42647</v>
       </c>
       <c r="AA29" s="127">
-        <f>+X29-H29*0.9*Z29*12/1000000</f>
+        <f t="shared" si="2"/>
         <v>-30.595453520000007</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB29">
+        <f>VLOOKUP(B29,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <f>VLOOKUP($B29,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>40864.980000000003</v>
+      </c>
+      <c r="AD29">
+        <f>VLOOKUP($B29,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>37737.99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B30" s="110"/>
       <c r="C30" s="110"/>
       <c r="D30" s="111"/>
       <c r="E30" s="65">
-        <f>SUM(E5:E29)</f>
+        <f t="shared" ref="E30:L30" si="3">SUM(E5:E29)</f>
         <v>18703.75</v>
       </c>
       <c r="F30" s="62">
-        <f>SUM(F5:F29)</f>
+        <f t="shared" si="3"/>
         <v>18552.5</v>
       </c>
       <c r="G30" s="62">
-        <f>SUM(G5:G29)</f>
+        <f t="shared" si="3"/>
         <v>18711.5</v>
       </c>
       <c r="H30" s="62">
-        <f>SUM(H5:H29)</f>
+        <f t="shared" si="3"/>
         <v>17409</v>
       </c>
       <c r="I30" s="113">
-        <f>SUM(I5:I29)</f>
+        <f t="shared" si="3"/>
         <v>10179</v>
       </c>
       <c r="J30" s="69">
-        <f>SUM(J5:J29)</f>
+        <f t="shared" si="3"/>
         <v>10211</v>
       </c>
       <c r="K30" s="69">
-        <f>SUM(K5:K29)</f>
+        <f t="shared" si="3"/>
         <v>10144</v>
       </c>
       <c r="L30" s="69">
-        <f>SUM(L5:L29)</f>
+        <f t="shared" si="3"/>
         <v>10384.119533062507</v>
       </c>
       <c r="M30" s="65">
@@ -5219,35 +5593,35 @@
         <v>41806.344000000005</v>
       </c>
       <c r="Q30" s="65">
-        <f>SUM(Q5:Q29)</f>
+        <f t="shared" ref="Q30:X30" si="4">SUM(Q5:Q29)</f>
         <v>9906.2285834400009</v>
       </c>
       <c r="R30" s="62">
-        <f>SUM(R5:R29)</f>
+        <f t="shared" si="4"/>
         <v>10686.004797849999</v>
       </c>
       <c r="S30" s="62">
-        <f>SUM(S5:S29)</f>
+        <f t="shared" si="4"/>
         <v>10738.800362689999</v>
       </c>
       <c r="T30" s="62">
-        <f>SUM(T5:T29)</f>
+        <f t="shared" si="4"/>
         <v>12991.528064170001</v>
       </c>
       <c r="U30" s="65">
-        <f>SUM(U5:U29)</f>
+        <f t="shared" si="4"/>
         <v>3849.4319221699998</v>
       </c>
       <c r="V30" s="62">
-        <f>SUM(V5:V29)</f>
+        <f t="shared" si="4"/>
         <v>3903.1294118300002</v>
       </c>
       <c r="W30" s="62">
-        <f>SUM(W5:W29)</f>
+        <f t="shared" si="4"/>
         <v>4457.8239094700011</v>
       </c>
       <c r="X30" s="62">
-        <f>SUM(X5:X29)</f>
+        <f t="shared" si="4"/>
         <v>5729.2864052199993</v>
       </c>
       <c r="Y30" s="125">
@@ -5260,10 +5634,10 @@
         <v>-2289.0831231800003</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:18" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" s="103" t="s">
         <v>0</v>
@@ -5283,7 +5657,7 @@
     </row>
     <row r="35" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
-        <f t="shared" ref="A35:A59" si="1">+A34+1</f>
+        <f t="shared" ref="A35:A59" si="5">+A34+1</f>
         <v>1</v>
       </c>
       <c r="B35" s="24" t="s">
@@ -5298,11 +5672,11 @@
     </row>
     <row r="36" spans="1:18" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C36" s="21" t="s">
         <v>5</v>
@@ -5313,7 +5687,7 @@
     </row>
     <row r="37" spans="1:18" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A37" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="B37" s="25" t="s">
@@ -5328,7 +5702,7 @@
     </row>
     <row r="38" spans="1:18" ht="189" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="B38" s="25" t="s">
@@ -5343,7 +5717,7 @@
     </row>
     <row r="39" spans="1:18" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
       <c r="B39" s="25" t="s">
@@ -5356,12 +5730,12 @@
         <v>19</v>
       </c>
       <c r="R39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="B40" s="25" t="s">
@@ -5376,7 +5750,7 @@
     </row>
     <row r="41" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
       <c r="B41" s="25" t="s">
@@ -5391,11 +5765,11 @@
     </row>
     <row r="42" spans="1:18" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="B42" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>5</v>
@@ -5406,7 +5780,7 @@
     </row>
     <row r="43" spans="1:18" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
       <c r="B43" s="25" t="s">
@@ -5421,11 +5795,11 @@
     </row>
     <row r="44" spans="1:18" ht="220.5" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="B44" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>62</v>
@@ -5436,7 +5810,7 @@
     </row>
     <row r="45" spans="1:18" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="B45" s="25" t="s">
@@ -5451,7 +5825,7 @@
     </row>
     <row r="46" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="B46" s="25" t="s">
@@ -5466,11 +5840,11 @@
     </row>
     <row r="47" spans="1:18" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>13</v>
       </c>
       <c r="B47" s="25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C47" s="21" t="s">
         <v>5</v>
@@ -5481,11 +5855,11 @@
     </row>
     <row r="48" spans="1:18" ht="189" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
       <c r="B48" s="25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>5</v>
@@ -5496,7 +5870,7 @@
     </row>
     <row r="49" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="B49" s="25" t="s">
@@ -5511,7 +5885,7 @@
     </row>
     <row r="50" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="B50" s="25" t="s">
@@ -5526,7 +5900,7 @@
     </row>
     <row r="51" spans="1:4" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="B51" s="25" t="s">
@@ -5541,7 +5915,7 @@
     </row>
     <row r="52" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -5556,7 +5930,7 @@
     </row>
     <row r="53" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="B53" s="25" t="s">
@@ -5571,11 +5945,11 @@
     </row>
     <row r="54" spans="1:4" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="B54" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C54" s="21" t="s">
         <v>5</v>
@@ -5586,11 +5960,11 @@
     </row>
     <row r="55" spans="1:4" ht="126" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="B55" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>62</v>
@@ -5601,7 +5975,7 @@
     </row>
     <row r="56" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="B56" s="25" t="s">
@@ -5616,7 +5990,7 @@
     </row>
     <row r="57" spans="1:4" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="B57" s="25" t="s">
@@ -5631,7 +6005,7 @@
     </row>
     <row r="58" spans="1:4" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="B58" s="25" t="s">
@@ -5646,7 +6020,7 @@
     </row>
     <row r="59" spans="1:4" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="B59" s="25" t="s">
@@ -5661,7 +6035,7 @@
     </row>
     <row r="60" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B60" s="110"/>
       <c r="C60" s="110"/>
@@ -5686,13 +6060,13 @@
     </sortState>
   </autoFilter>
   <mergeCells count="7">
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="Y4:Z4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="39" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -5705,10 +6079,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA64"/>
+  <dimension ref="A1:AD64"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF10" sqref="AF10"/>
+      <selection activeCell="AB5" sqref="AB5:AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5717,91 +6091,91 @@
     <col min="26" max="26" width="7.7109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="272" t="s">
-        <v>167</v>
-      </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="272"/>
-      <c r="S1" s="272"/>
-      <c r="T1" s="272"/>
-      <c r="U1" s="272"/>
-      <c r="V1" s="272"/>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
-      <c r="Y1" s="272"/>
-      <c r="Z1" s="272"/>
-    </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:27" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="262" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="264" t="s">
+    <row r="1" spans="1:30" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="259" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="259"/>
+      <c r="L1" s="259"/>
+      <c r="M1" s="259"/>
+      <c r="N1" s="259"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="259"/>
+      <c r="Q1" s="259"/>
+      <c r="R1" s="259"/>
+      <c r="S1" s="259"/>
+      <c r="T1" s="259"/>
+      <c r="U1" s="259"/>
+      <c r="V1" s="259"/>
+      <c r="W1" s="259"/>
+      <c r="X1" s="259"/>
+      <c r="Y1" s="259"/>
+      <c r="Z1" s="259"/>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="264" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="266" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="268" t="s">
+      <c r="D3" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="270" t="s">
+      <c r="E3" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="255" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="258" t="s">
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="250" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="255" t="s">
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="252" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="256"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="257"/>
-      <c r="U3" s="256" t="s">
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="250" t="s">
         <v>160</v>
       </c>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="250" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z3" s="251"/>
-      <c r="AA3" s="252"/>
-    </row>
-    <row r="4" spans="1:27" s="48" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="263"/>
-      <c r="B4" s="265"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="269"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="274"/>
+      <c r="U3" s="251" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
+      <c r="Y3" s="254" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z3" s="255"/>
+      <c r="AA3" s="256"/>
+    </row>
+    <row r="4" spans="1:30" s="48" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="265"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="271"/>
       <c r="E4" s="64">
         <v>2015</v>
       </c>
@@ -5862,26 +6236,26 @@
       <c r="X4" s="244">
         <v>2018</v>
       </c>
-      <c r="Y4" s="273" t="s">
+      <c r="Y4" s="260" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z4" s="261"/>
+      <c r="AA4" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" s="274"/>
-      <c r="AA4" s="151" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E5" s="3">
         <v>171</v>
@@ -5944,30 +6318,42 @@
         <v>54.76343275</v>
       </c>
       <c r="Y5" s="153">
-        <f>+X5-L5*Z5*12/1000000</f>
+        <f t="shared" ref="Y5:Y30" si="0">+X5-L5*Z5*12/1000000</f>
         <v>6.6576167500000025</v>
       </c>
       <c r="Z5" s="154">
         <v>42647</v>
       </c>
       <c r="AA5" s="155">
-        <f>+X5-H5*0.9*Z5*12/1000000</f>
+        <f t="shared" ref="AA5:AA30" si="1">+X5-H5*0.9*Z5*12/1000000</f>
         <v>-15.130735550000018</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>95849.16</v>
+      </c>
+      <c r="AC5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>47782.42</v>
+      </c>
+      <c r="AD5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>47637.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f>+A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E6" s="3">
         <v>210.5</v>
@@ -6030,20 +6416,32 @@
         <v>62.705394060000003</v>
       </c>
       <c r="Y6" s="156">
-        <f>+X6-L6*Z6*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>8.9701740600000051</v>
       </c>
       <c r="Z6" s="2">
         <v>42647</v>
       </c>
       <c r="AA6" s="157">
-        <f>+X6-H6*0.9*Z6*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-8.4553901400000058</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>106098</v>
+      </c>
+      <c r="AC6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>41954</v>
+      </c>
+      <c r="AD6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>41954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <f t="shared" ref="A7:A30" si="0">+A6+1</f>
+        <f t="shared" ref="A7:A30" si="2">+A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="26" t="s">
@@ -6116,20 +6514,32 @@
         <v>67.584467939999996</v>
       </c>
       <c r="Y7" s="158">
-        <f>+X7-L7*Z7*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-4.062492060000011</v>
       </c>
       <c r="Z7" s="2">
         <v>42647</v>
       </c>
       <c r="AA7" s="157">
-        <f>+X7-H7*0.9*Z7*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-22.460407860000018</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>74394</v>
+      </c>
+      <c r="AC7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>31444</v>
+      </c>
+      <c r="AD7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B8" s="26" t="s">
@@ -6202,20 +6612,32 @@
         <v>63.109815249999997</v>
       </c>
       <c r="Y8" s="158">
-        <f>+X8-L8*Z8*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-23.378300750000008</v>
       </c>
       <c r="Z8" s="2">
         <v>42647</v>
       </c>
       <c r="AA8" s="157">
-        <f>+X8-H8*0.9*Z8*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-28.547117150000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>63311.17</v>
+      </c>
+      <c r="AC8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>27530.06</v>
+      </c>
+      <c r="AD8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>27531.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B9" s="26" t="s">
@@ -6288,20 +6710,32 @@
         <v>67.328403900000012</v>
       </c>
       <c r="Y9" s="158">
-        <f>+X9-L9*Z9*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-12.225727960788333</v>
       </c>
       <c r="Z9" s="2">
         <v>42647</v>
       </c>
       <c r="AA9" s="157">
-        <f>+X9-H9*0.9*Z9*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-26.055731999999992</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B10" s="26" t="s">
@@ -6374,20 +6808,32 @@
         <v>80.620611650000001</v>
       </c>
       <c r="Y10" s="158">
-        <f>+X10-L10*Z10*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-17.126312350000006</v>
       </c>
       <c r="Z10" s="2">
         <v>42647</v>
       </c>
       <c r="AA10" s="157">
-        <f>+X10-H10*0.9*Z10*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-53.410379950000021</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>72713</v>
+      </c>
+      <c r="AC10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>30867</v>
+      </c>
+      <c r="AD10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>30867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B11" s="26" t="s">
@@ -6460,20 +6906,32 @@
         <v>93.877078170000004</v>
       </c>
       <c r="Y11" s="158">
-        <f>+X11-L11*Z11*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-41.74038182999999</v>
       </c>
       <c r="Z11" s="2">
         <v>42647</v>
       </c>
       <c r="AA11" s="157">
-        <f>+X11-H11*0.9*Z11*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-47.177874330000009</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>64422.720000000001</v>
+      </c>
+      <c r="AC11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>26664.21</v>
+      </c>
+      <c r="AD11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>26663.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B12" s="26" t="s">
@@ -6546,20 +7004,32 @@
         <v>143.84697912999999</v>
       </c>
       <c r="Y12" s="158">
-        <f>+X12-L12*Z12*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-5.5881088700000134</v>
       </c>
       <c r="Z12" s="2">
         <v>42647</v>
       </c>
       <c r="AA12" s="157">
-        <f>+X12-H12*0.9*Z12*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-31.867190270000009</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>79487.88</v>
+      </c>
+      <c r="AC12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>37107.01</v>
+      </c>
+      <c r="AD12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>37107.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B13" s="26" t="s">
@@ -6632,20 +7102,32 @@
         <v>110.05361989000001</v>
       </c>
       <c r="Y13" s="158">
-        <f>+X13-L13*Z13*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-57.293208109999981</v>
       </c>
       <c r="Z13" s="2">
         <v>42647</v>
       </c>
       <c r="AA13" s="157">
-        <f>+X13-H13*0.9*Z13*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-70.496719309999989</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>73222.03</v>
+      </c>
+      <c r="AC13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>26098</v>
+      </c>
+      <c r="AD13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>26071.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B14" s="26" t="s">
@@ -6718,20 +7200,32 @@
         <v>109.66894315</v>
       </c>
       <c r="Y14" s="158">
-        <f>+X14-L14*Z14*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-36.255252560307966</v>
       </c>
       <c r="Z14" s="2">
         <v>42647</v>
       </c>
       <c r="AA14" s="157">
-        <f>+X14-H14*0.9*Z14*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-84.699024049999977</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>79507.77</v>
+      </c>
+      <c r="AC14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>32014.32</v>
+      </c>
+      <c r="AD14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>32014.37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B15" s="26" t="s">
@@ -6804,20 +7298,32 @@
         <v>132.91436361000001</v>
       </c>
       <c r="Y15" s="158">
-        <f>+X15-L15*Z15*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-76.39711238999999</v>
       </c>
       <c r="Z15" s="2">
         <v>42647</v>
       </c>
       <c r="AA15" s="157">
-        <f>+X15-H15*0.9*Z15*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-77.68931649000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>64432</v>
+      </c>
+      <c r="AC15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>27615</v>
+      </c>
+      <c r="AD15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>27615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B16" s="26" t="s">
@@ -6890,20 +7396,32 @@
         <v>125.9472549</v>
       </c>
       <c r="Y16" s="158">
-        <f>+X16-L16*Z16*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-55.217201099999997</v>
       </c>
       <c r="Z16" s="2">
         <v>42647</v>
       </c>
       <c r="AA16" s="157">
-        <f>+X16-H16*0.9*Z16*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-97.552877999999978</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>55672.800000000003</v>
+      </c>
+      <c r="AC16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>28275.01</v>
+      </c>
+      <c r="AD16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>27201.74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B17" s="26" t="s">
@@ -6976,20 +7494,32 @@
         <v>200.38438859000001</v>
       </c>
       <c r="Y17" s="156">
-        <f>+X17-L17*Z17*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>7.9611245900000256</v>
       </c>
       <c r="Z17" s="2">
         <v>42647</v>
       </c>
       <c r="AA17" s="157">
-        <f>+X17-H17*0.9*Z17*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-41.539248309999948</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>98120.84</v>
+      </c>
+      <c r="AC17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>42094</v>
+      </c>
+      <c r="AD17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B18" s="26" t="s">
@@ -7062,20 +7592,32 @@
         <v>159.87025693000001</v>
       </c>
       <c r="Y18" s="158">
-        <f>+X18-L18*Z18*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-44.323579069999994</v>
       </c>
       <c r="Z18" s="2">
         <v>42647</v>
       </c>
       <c r="AA18" s="157">
-        <f>+X18-H18*0.9*Z18*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-88.386459469999977</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>78030.48</v>
+      </c>
+      <c r="AC18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>31236.41</v>
+      </c>
+      <c r="AD18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B19" s="25" t="s">
@@ -7148,20 +7690,32 @@
         <v>209.95749552000001</v>
       </c>
       <c r="Y19" s="158">
-        <f>+X19-L19*Z19*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-32.618640479999982</v>
       </c>
       <c r="Z19" s="2">
         <v>42647</v>
       </c>
       <c r="AA19" s="157">
-        <f>+X19-H19*0.9*Z19*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-64.783007879999957</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>75752.289999999994</v>
+      </c>
+      <c r="AC19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>32279.18</v>
+      </c>
+      <c r="AD19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B20" s="26" t="s">
@@ -7234,20 +7788,32 @@
         <v>223.34837506</v>
       </c>
       <c r="Y20" s="158">
-        <f>+X20-L20*Z20*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>14.548663059999996</v>
       </c>
       <c r="Z20" s="2">
         <v>42647</v>
       </c>
       <c r="AA20" s="157">
-        <f>+X20-H20*0.9*Z20*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-55.422269839999984</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>101836.65</v>
+      </c>
+      <c r="AC20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>47335.54</v>
+      </c>
+      <c r="AD20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>47052.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B21" s="26" t="s">
@@ -7320,20 +7886,32 @@
         <v>181.97854763000001</v>
       </c>
       <c r="Y21" s="158">
-        <f>+X21-L21*Z21*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-52.409364369999992</v>
       </c>
       <c r="Z21" s="2">
         <v>42647</v>
       </c>
       <c r="AA21" s="157">
-        <f>+X21-H21*0.9*Z21*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-102.54944226999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <f>VLOOKUP($B21,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>73130.100000000006</v>
+      </c>
+      <c r="AC21">
+        <f>VLOOKUP($B21,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>31191.1</v>
+      </c>
+      <c r="AD21">
+        <f>VLOOKUP($B21,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>30761.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B22" s="26" t="s">
@@ -7406,20 +7984,32 @@
         <v>256.31984627000003</v>
       </c>
       <c r="Y22" s="158">
-        <f>+X22-L22*Z22*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-27.709173729999975</v>
       </c>
       <c r="Z22" s="2">
         <v>42647</v>
       </c>
       <c r="AA22" s="157">
-        <f>+X22-H22*0.9*Z22*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-134.14329162999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <f>VLOOKUP($B22,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>70881.47</v>
+      </c>
+      <c r="AC22">
+        <f>VLOOKUP($B22,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33332.400000000001</v>
+      </c>
+      <c r="AD22">
+        <f>VLOOKUP($B22,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B23" s="26" t="s">
@@ -7492,20 +8082,32 @@
         <v>175.91850543000001</v>
       </c>
       <c r="Y23" s="158">
-        <f>+X23-L23*Z23*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-160.31044256999999</v>
       </c>
       <c r="Z23" s="2">
         <v>42647</v>
       </c>
       <c r="AA23" s="157">
-        <f>+X23-H23*0.9*Z23*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-231.35607986999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <f>VLOOKUP($B23,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <f>VLOOKUP($B23,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <f>VLOOKUP($B23,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B24" s="26" t="s">
@@ -7579,20 +8181,32 @@
         <v>273.81560257999996</v>
       </c>
       <c r="Y24" s="158">
-        <f>+X24-L24*Z24*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-94.142713420000064</v>
       </c>
       <c r="Z24" s="2">
         <v>42647</v>
       </c>
       <c r="AA24" s="157">
-        <f>+X24-H24*0.9*Z24*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-138.87088702</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <f>VLOOKUP($B24,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>75891</v>
+      </c>
+      <c r="AC24">
+        <f>VLOOKUP($B24,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>31634</v>
+      </c>
+      <c r="AD24">
+        <f>VLOOKUP($B24,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>30856</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B25" s="26" t="s">
@@ -7665,20 +8279,32 @@
         <v>395.67095508</v>
       </c>
       <c r="Y25" s="158">
-        <f>+X25-L25*Z25*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-6.575548920000017</v>
       </c>
       <c r="Z25" s="2">
         <v>42647</v>
       </c>
       <c r="AA25" s="157">
-        <f>+X25-H25*0.9*Z25*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-109.59364212000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <f>VLOOKUP($B25,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>93503</v>
+      </c>
+      <c r="AC25">
+        <f>VLOOKUP($B25,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>44836</v>
+      </c>
+      <c r="AD25">
+        <f>VLOOKUP($B25,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -7751,20 +8377,32 @@
         <v>412.25855824000001</v>
       </c>
       <c r="Y26" s="158">
-        <f>+X26-L26*Z26*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-43.723165759999972</v>
       </c>
       <c r="Z26" s="2">
         <v>42647</v>
       </c>
       <c r="AA26" s="157">
-        <f>+X26-H26*0.9*Z26*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-119.02923835999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <f>VLOOKUP($B26,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>84853.4</v>
+      </c>
+      <c r="AC26">
+        <f>VLOOKUP($B26,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>36759.19</v>
+      </c>
+      <c r="AD26">
+        <f>VLOOKUP($B26,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>36623.629999999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B27" s="26" t="s">
@@ -7837,20 +8475,32 @@
         <v>541.14079036999999</v>
       </c>
       <c r="Y27" s="158">
-        <f>+X27-L27*Z27*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>22.723858370000016</v>
       </c>
       <c r="Z27" s="2">
         <v>42647</v>
       </c>
       <c r="AA27" s="157">
-        <f>+X27-H27*0.9*Z27*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-52.786919830000102</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <f>VLOOKUP($B27,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>98342.71</v>
+      </c>
+      <c r="AC27">
+        <f>VLOOKUP($B27,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>37684.959999999999</v>
+      </c>
+      <c r="AD27">
+        <f>VLOOKUP($B27,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>37666.730000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B28" s="26" t="s">
@@ -7923,20 +8573,32 @@
         <v>402.14316516000002</v>
       </c>
       <c r="Y28" s="158">
-        <f>+X28-L28*Z28*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-37.46211083999998</v>
       </c>
       <c r="Z28" s="2">
         <v>42647</v>
       </c>
       <c r="AA28" s="157">
-        <f>+X28-H28*0.9*Z28*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-236.34639534000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <f>VLOOKUP($B28,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>76246.080000000002</v>
+      </c>
+      <c r="AC28">
+        <f>VLOOKUP($B28,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33129.29</v>
+      </c>
+      <c r="AD28">
+        <f>VLOOKUP($B28,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>33522.22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B29" s="26" t="s">
@@ -8009,20 +8671,32 @@
         <v>476.36869514</v>
       </c>
       <c r="Y29" s="158">
-        <f>+X29-L29*Z29*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-169.98923686000001</v>
       </c>
       <c r="Z29" s="2">
         <v>42647</v>
       </c>
       <c r="AA29" s="157">
-        <f>+X29-H29*0.9*Z29*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-296.03671006000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:27" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB29">
+        <f>VLOOKUP($B29,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>75290</v>
+      </c>
+      <c r="AC29">
+        <f>VLOOKUP($B29,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>32078</v>
+      </c>
+      <c r="AD29">
+        <f>VLOOKUP($B29,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B30" s="32" t="s">
@@ -8095,102 +8769,114 @@
         <v>525.81917719</v>
       </c>
       <c r="Y30" s="159">
-        <f>+X30-L30*Z30*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-239.77976680999996</v>
       </c>
       <c r="Z30" s="10">
         <v>42647</v>
       </c>
       <c r="AA30" s="160">
-        <f>+X30-H30*0.9*Z30*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-304.85055940999985</v>
       </c>
-    </row>
-    <row r="31" spans="1:27" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="260" t="s">
-        <v>165</v>
-      </c>
-      <c r="B31" s="261"/>
-      <c r="C31" s="261"/>
-      <c r="D31" s="261"/>
+      <c r="AB30">
+        <f>VLOOKUP($B30,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>80005.52</v>
+      </c>
+      <c r="AC30">
+        <f>VLOOKUP($B30,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>31791.88</v>
+      </c>
+      <c r="AD30">
+        <f>VLOOKUP($B30,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>31809.52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="262" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="263"/>
+      <c r="C31" s="263"/>
+      <c r="D31" s="263"/>
       <c r="E31" s="65">
-        <f>SUM(E5:E29)</f>
+        <f t="shared" ref="E31:L31" si="3">SUM(E5:E29)</f>
         <v>16538.25</v>
       </c>
       <c r="F31" s="62">
-        <f>SUM(F5:F29)</f>
+        <f t="shared" si="3"/>
         <v>16914</v>
       </c>
       <c r="G31" s="62">
-        <f>SUM(G5:G29)</f>
+        <f t="shared" si="3"/>
         <v>16809.25</v>
       </c>
       <c r="H31" s="62">
-        <f>SUM(H5:H29)</f>
+        <f t="shared" si="3"/>
         <v>15753.75</v>
       </c>
       <c r="I31" s="86">
-        <f>SUM(I5:I29)</f>
+        <f t="shared" si="3"/>
         <v>12075.642058299522</v>
       </c>
       <c r="J31" s="69">
-        <f>SUM(J5:J29)</f>
+        <f t="shared" si="3"/>
         <v>12035.953157833635</v>
       </c>
       <c r="K31" s="69">
-        <f>SUM(K5:K29)</f>
+        <f t="shared" si="3"/>
         <v>12089.853021222591</v>
       </c>
       <c r="L31" s="69">
-        <f>SUM(L5:L29)</f>
+        <f t="shared" si="3"/>
         <v>11644.590443194707</v>
       </c>
       <c r="M31" s="135">
-        <f t="shared" ref="M31:P31" si="1">SUM(M5:M30)/26</f>
+        <f t="shared" ref="M31:P31" si="4">SUM(M5:M30)/26</f>
         <v>23625.766153846151</v>
       </c>
       <c r="N31" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>24744.018461538461</v>
       </c>
       <c r="O31" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>27404.445384615385</v>
       </c>
       <c r="P31" s="85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>34578.828111335279</v>
       </c>
       <c r="Q31" s="65">
-        <f>SUM(Q5:Q30)</f>
+        <f t="shared" ref="Q31:X31" si="5">SUM(Q5:Q30)</f>
         <v>7132.8027846700006</v>
       </c>
       <c r="R31" s="62">
-        <f>SUM(R5:R30)</f>
+        <f t="shared" si="5"/>
         <v>7372.732487180001</v>
       </c>
       <c r="S31" s="62">
-        <f>SUM(S5:S30)</f>
+        <f t="shared" si="5"/>
         <v>7774.6099906399995</v>
       </c>
       <c r="T31" s="62">
-        <f>SUM(T5:T30)</f>
+        <f t="shared" si="5"/>
         <v>9558.4368644899987</v>
       </c>
       <c r="U31" s="65">
-        <f>SUM(U5:U30)</f>
+        <f t="shared" si="5"/>
         <v>3906.46182778</v>
       </c>
       <c r="V31" s="62">
-        <f>SUM(V5:V30)</f>
+        <f t="shared" si="5"/>
         <v>4042.7794057000001</v>
       </c>
       <c r="W31" s="62">
-        <f>SUM(W5:W30)</f>
+        <f t="shared" si="5"/>
         <v>4416.8794797699993</v>
       </c>
       <c r="X31" s="62">
-        <f>SUM(X5:X30)</f>
+        <f t="shared" si="5"/>
         <v>5547.41472359</v>
       </c>
       <c r="Y31" s="152">
@@ -8207,68 +8893,68 @@
       <c r="D33" s="120"/>
     </row>
     <row r="34" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A34" s="272" t="s">
-        <v>167</v>
-      </c>
-      <c r="B34" s="272"/>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
-      <c r="E34" s="272"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272"/>
-      <c r="H34" s="272"/>
-      <c r="I34" s="272"/>
-      <c r="J34" s="272"/>
-      <c r="K34" s="272"/>
-      <c r="L34" s="272"/>
-      <c r="M34" s="272"/>
-      <c r="N34" s="272"/>
-      <c r="O34" s="272"/>
-      <c r="P34" s="272"/>
-      <c r="Q34" s="272"/>
-      <c r="R34" s="272"/>
-      <c r="S34" s="272"/>
-      <c r="T34" s="272"/>
-      <c r="U34" s="272"/>
-      <c r="V34" s="272"/>
-      <c r="W34" s="272"/>
-      <c r="X34" s="272"/>
-      <c r="Y34" s="272"/>
-      <c r="Z34" s="272"/>
+      <c r="A34" s="259" t="s">
+        <v>166</v>
+      </c>
+      <c r="B34" s="259"/>
+      <c r="C34" s="259"/>
+      <c r="D34" s="259"/>
+      <c r="E34" s="259"/>
+      <c r="F34" s="259"/>
+      <c r="G34" s="259"/>
+      <c r="H34" s="259"/>
+      <c r="I34" s="259"/>
+      <c r="J34" s="259"/>
+      <c r="K34" s="259"/>
+      <c r="L34" s="259"/>
+      <c r="M34" s="259"/>
+      <c r="N34" s="259"/>
+      <c r="O34" s="259"/>
+      <c r="P34" s="259"/>
+      <c r="Q34" s="259"/>
+      <c r="R34" s="259"/>
+      <c r="S34" s="259"/>
+      <c r="T34" s="259"/>
+      <c r="U34" s="259"/>
+      <c r="V34" s="259"/>
+      <c r="W34" s="259"/>
+      <c r="X34" s="259"/>
+      <c r="Y34" s="259"/>
+      <c r="Z34" s="259"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="1:26" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="262" t="s">
-        <v>164</v>
-      </c>
-      <c r="B36" s="264" t="s">
+      <c r="A36" s="264" t="s">
+        <v>163</v>
+      </c>
+      <c r="B36" s="266" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="266" t="s">
+      <c r="C36" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="268" t="s">
+      <c r="D36" s="270" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="263"/>
-      <c r="B37" s="265"/>
-      <c r="C37" s="267"/>
-      <c r="D37" s="269"/>
+      <c r="A37" s="265"/>
+      <c r="B37" s="267"/>
+      <c r="C37" s="269"/>
+      <c r="D37" s="271"/>
     </row>
     <row r="38" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
         <v>1</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C38" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
@@ -8277,18 +8963,18 @@
         <v>2</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
-        <f t="shared" ref="A40:A63" si="2">+A39+1</f>
+        <f t="shared" ref="A40:A63" si="6">+A39+1</f>
         <v>3</v>
       </c>
       <c r="B40" s="26" t="s">
@@ -8303,7 +8989,7 @@
     </row>
     <row r="41" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="B41" s="26" t="s">
@@ -8318,7 +9004,7 @@
     </row>
     <row r="42" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="B42" s="26" t="s">
@@ -8333,7 +9019,7 @@
     </row>
     <row r="43" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="B43" s="26" t="s">
@@ -8348,7 +9034,7 @@
     </row>
     <row r="44" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="B44" s="26" t="s">
@@ -8363,7 +9049,7 @@
     </row>
     <row r="45" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="B45" s="26" t="s">
@@ -8378,7 +9064,7 @@
     </row>
     <row r="46" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="B46" s="26" t="s">
@@ -8393,7 +9079,7 @@
     </row>
     <row r="47" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="B47" s="26" t="s">
@@ -8408,7 +9094,7 @@
     </row>
     <row r="48" spans="1:26" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="B48" s="26" t="s">
@@ -8423,7 +9109,7 @@
     </row>
     <row r="49" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="B49" s="26" t="s">
@@ -8438,7 +9124,7 @@
     </row>
     <row r="50" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="B50" s="26" t="s">
@@ -8453,7 +9139,7 @@
     </row>
     <row r="51" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="B51" s="26" t="s">
@@ -8468,7 +9154,7 @@
     </row>
     <row r="52" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="B52" s="25" t="s">
@@ -8483,7 +9169,7 @@
     </row>
     <row r="53" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="B53" s="26" t="s">
@@ -8498,7 +9184,7 @@
     </row>
     <row r="54" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="B54" s="26" t="s">
@@ -8513,7 +9199,7 @@
     </row>
     <row r="55" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="B55" s="26" t="s">
@@ -8528,7 +9214,7 @@
     </row>
     <row r="56" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19</v>
       </c>
       <c r="B56" s="26" t="s">
@@ -8543,7 +9229,7 @@
     </row>
     <row r="57" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="B57" s="26" t="s">
@@ -8558,7 +9244,7 @@
     </row>
     <row r="58" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="B58" s="26" t="s">
@@ -8573,7 +9259,7 @@
     </row>
     <row r="59" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="B59" s="26" t="s">
@@ -8588,7 +9274,7 @@
     </row>
     <row r="60" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="B60" s="26" t="s">
@@ -8603,7 +9289,7 @@
     </row>
     <row r="61" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="B61" s="26" t="s">
@@ -8618,7 +9304,7 @@
     </row>
     <row r="62" spans="1:4" ht="31.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="B62" s="26" t="s">
@@ -8633,7 +9319,7 @@
     </row>
     <row r="63" spans="1:4" ht="31.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="B63" s="32" t="s">
@@ -8647,34 +9333,34 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="28.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="260" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" s="261"/>
-      <c r="C64" s="261"/>
-      <c r="D64" s="261"/>
+      <c r="A64" s="262" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="263"/>
+      <c r="C64" s="263"/>
+      <c r="D64" s="263"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A34:Z34"/>
+    <mergeCell ref="Q3:T3"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
     <mergeCell ref="A1:Z1"/>
     <mergeCell ref="U3:X3"/>
     <mergeCell ref="Y3:AA3"/>
     <mergeCell ref="Y4:Z4"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="M3:P3"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="A34:Z34"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8684,10 +9370,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:AC43"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U40" sqref="U40"/>
+      <selection activeCell="AA5" sqref="AA5:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8696,9 +9382,9 @@
     <col min="27" max="27" width="7.7109375" style="124"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -8726,60 +9412,60 @@
       <c r="Y1" s="82"/>
       <c r="AA1" s="123"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:27" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="262" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="264" t="s">
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:29" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="264" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="266" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="268" t="s">
+      <c r="D3" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="270" t="s">
+      <c r="E3" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="255" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="258" t="s">
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="250" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="255" t="s">
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="252" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="256"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="255" t="s">
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="250" t="s">
         <v>160</v>
       </c>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
-      <c r="Y3" s="250" t="s">
-        <v>176</v>
-      </c>
-      <c r="Z3" s="252"/>
-    </row>
-    <row r="4" spans="1:27" s="48" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="263"/>
-      <c r="B4" s="265"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="269"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="250" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
+      <c r="Y3" s="254" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z3" s="256"/>
+    </row>
+    <row r="4" spans="1:29" s="48" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="265"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="271"/>
       <c r="E4" s="64">
         <v>2015</v>
       </c>
@@ -8841,13 +9527,13 @@
         <v>2018</v>
       </c>
       <c r="Y4" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z4" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" s="195" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -8921,15 +9607,27 @@
         <v>12.24268011</v>
       </c>
       <c r="Y5" s="192">
-        <f>+X5-42647*L5*12/1000000</f>
+        <f t="shared" ref="Y5:Y20" si="0">+X5-42647*L5*12/1000000</f>
         <v>-2.0867118900000001</v>
       </c>
       <c r="Z5" s="155">
-        <f>+X5-42647*H5*12/1000000</f>
+        <f t="shared" ref="Z5:Z20" si="1">+X5-42647*H5*12/1000000</f>
         <v>-18.20727789</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>34320.699999999997</v>
+      </c>
+      <c r="AB5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>25284.1</v>
+      </c>
+      <c r="AC5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f>+A5+1</f>
         <v>2</v>
@@ -9004,17 +9702,29 @@
         <v>8.1909907200000003</v>
       </c>
       <c r="Y6" s="158">
-        <f>+X6-42647*L6*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-1.5325252799999998</v>
       </c>
       <c r="Z6" s="157">
-        <f>+X6-42647*H6*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-15.094271279999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>43425</v>
+      </c>
+      <c r="AB6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>27006</v>
+      </c>
+      <c r="AC6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <f t="shared" ref="A7:A20" si="0">+A6+1</f>
+        <f t="shared" ref="A7:A20" si="2">+A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -9087,17 +9797,29 @@
         <v>37.584589170000001</v>
       </c>
       <c r="Y7" s="158">
-        <f>+X7-42647*L7*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-0.79771082999999976</v>
       </c>
       <c r="Z7" s="157">
-        <f>+X7-42647*H7*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-25.490323830000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
@@ -9170,17 +9892,29 @@
         <v>65.600486840000002</v>
       </c>
       <c r="Y8" s="156">
-        <f>+X8-42647*L8*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>1.1182228400000014</v>
       </c>
       <c r="Z8" s="157">
-        <f>+X8-42647*H8*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-23.062626159999994</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>58547.76</v>
+      </c>
+      <c r="AB8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33882.9</v>
+      </c>
+      <c r="AC8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -9253,17 +9987,29 @@
         <v>39.946223959999998</v>
       </c>
       <c r="Y9" s="158">
-        <f>+X9-42647*L9*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-0.48313204000000098</v>
       </c>
       <c r="Z9" s="157">
-        <f>+X9-42647*H9*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-35.538966040000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>62562.5</v>
+      </c>
+      <c r="AB9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>32474.2</v>
+      </c>
+      <c r="AC9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -9336,17 +10082,29 @@
         <v>80.34988955</v>
       </c>
       <c r="Y10" s="156">
-        <f>+X10-42647*L10*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.51470555000000218</v>
       </c>
       <c r="Z10" s="157">
-        <f>+X10-42647*H10*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-44.904349449999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>57813</v>
+      </c>
+      <c r="AB10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33996</v>
+      </c>
+      <c r="AC10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -9419,17 +10177,29 @@
         <v>74.380056370000005</v>
       </c>
       <c r="Y11" s="156">
-        <f>+X11-42647*L11*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.2213323699999989</v>
       </c>
       <c r="Z11" s="157">
-        <f>+X11-42647*H11*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-52.793297629999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>58304.7</v>
+      </c>
+      <c r="AB11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33865.300000000003</v>
+      </c>
+      <c r="AC11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -9502,17 +10272,29 @@
         <v>96.890531999999993</v>
       </c>
       <c r="Y12" s="158">
-        <f>+X12-42647*L12*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-2.9034480000000116</v>
       </c>
       <c r="Z12" s="157">
-        <f>+X12-42647*H12*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-50.241618000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>57058</v>
+      </c>
+      <c r="AB12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33794</v>
+      </c>
+      <c r="AC12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -9585,17 +10367,29 @@
         <v>96.595349680000012</v>
       </c>
       <c r="Y13" s="156">
-        <f>+X13-42647*L13*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.966065680000014</v>
       </c>
       <c r="Z13" s="157">
-        <f>+X13-42647*H13*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-63.97060531999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
@@ -9668,17 +10462,29 @@
         <v>51.24758104</v>
       </c>
       <c r="Y14" s="158">
-        <f>+X14-42647*L14*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-11.187626960000003</v>
       </c>
       <c r="Z14" s="157">
-        <f>+X14-42647*H14*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-60.700793959999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>55814.3</v>
+      </c>
+      <c r="AB14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33559.300000000003</v>
+      </c>
+      <c r="AC14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B15" s="25" t="s">
@@ -9751,17 +10557,29 @@
         <v>98.842534470000004</v>
       </c>
       <c r="Y15" s="158">
-        <f>+X15-42647*L15*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>-5.0455575299999964</v>
       </c>
       <c r="Z15" s="157">
-        <f>+X15-42647*H15*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-41.764624529999992</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>57942.5</v>
+      </c>
+      <c r="AB15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33816.699999999997</v>
+      </c>
+      <c r="AC15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B16" s="25" t="s">
@@ -9834,17 +10652,29 @@
         <v>125.02309586</v>
       </c>
       <c r="Y16" s="156">
-        <f>+X16-42647*L16*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.15267985999999212</v>
       </c>
       <c r="Z16" s="157">
-        <f>+X16-42647*H16*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-62.282528139999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>59724.3</v>
+      </c>
+      <c r="AB16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>34674</v>
+      </c>
+      <c r="AC16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="B17" s="25" t="s">
@@ -9917,21 +10747,33 @@
         <v>116.26564298999999</v>
       </c>
       <c r="Y17" s="156">
-        <f>+X17-42647*L17*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>2.6540349899999853</v>
       </c>
       <c r="Z17" s="157">
-        <f>+X17-42647*H17*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-28.563569010000023</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>58998</v>
+      </c>
+      <c r="AB17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>34493</v>
+      </c>
+      <c r="AC17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>5</v>
@@ -10000,21 +10842,33 @@
         <v>136.06199354</v>
       </c>
       <c r="Y18" s="156">
-        <f>+X18-42647*L18*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>14.773925540000008</v>
       </c>
       <c r="Z18" s="157">
-        <f>+X18-42647*H18*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-29.237778459999987</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>83295.199999999997</v>
+      </c>
+      <c r="AB18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>44043.4</v>
+      </c>
+      <c r="AC18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>5</v>
@@ -10083,17 +10937,29 @@
         <v>268.71976572000005</v>
       </c>
       <c r="Y19" s="156">
-        <f>+X19-42647*L19*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>58.384761720000057</v>
       </c>
       <c r="Z19" s="157">
-        <f>+X19-42647*H19*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-5.2019152799999233</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>88997.25</v>
+      </c>
+      <c r="AB19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>46311.77</v>
+      </c>
+      <c r="AC19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B20" s="25" t="s">
@@ -10166,51 +11032,63 @@
         <v>173.29087499000002</v>
       </c>
       <c r="Y20" s="193">
-        <f>+X20-42647*L20*12/1000000</f>
+        <f t="shared" si="0"/>
         <v>13.620506990000024</v>
       </c>
       <c r="Z20" s="171">
-        <f>+X20-42647*H20*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-54.316164009999966</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="260" t="s">
-        <v>165</v>
-      </c>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261"/>
+      <c r="AA20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>81839.8</v>
+      </c>
+      <c r="AB20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>43530.43</v>
+      </c>
+      <c r="AC20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="262" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="263"/>
+      <c r="C21" s="263"/>
+      <c r="D21" s="263"/>
       <c r="E21" s="65">
-        <f>SUM(E5:E20)</f>
+        <f t="shared" ref="E21:L21" si="3">SUM(E5:E20)</f>
         <v>3889.75</v>
       </c>
       <c r="F21" s="65">
-        <f>SUM(F5:F20)</f>
+        <f t="shared" si="3"/>
         <v>4182.5</v>
       </c>
       <c r="G21" s="65">
-        <f>SUM(G5:G20)</f>
+        <f t="shared" si="3"/>
         <v>4360.5</v>
       </c>
       <c r="H21" s="65">
-        <f>SUM(H5:H20)</f>
+        <f t="shared" si="3"/>
         <v>4089</v>
       </c>
       <c r="I21" s="65">
-        <f>SUM(I5:I20)</f>
+        <f t="shared" si="3"/>
         <v>2663</v>
       </c>
       <c r="J21" s="69">
-        <f>SUM(J5:J20)</f>
+        <f t="shared" si="3"/>
         <v>2671</v>
       </c>
       <c r="K21" s="69">
-        <f>SUM(K5:K20)</f>
+        <f t="shared" si="3"/>
         <v>2691</v>
       </c>
       <c r="L21" s="69">
-        <f>SUM(L5:L20)</f>
+        <f t="shared" si="3"/>
         <v>2751</v>
       </c>
       <c r="M21" s="62">
@@ -10230,35 +11108,35 @@
         <v>40934.220624999994</v>
       </c>
       <c r="Q21" s="84">
-        <f>SUM(Q5:Q20)</f>
+        <f t="shared" ref="Q21:X21" si="4">SUM(Q5:Q20)</f>
         <v>1647.1931804300002</v>
       </c>
       <c r="R21" s="62">
-        <f>SUM(R5:R20)</f>
+        <f t="shared" si="4"/>
         <v>1687.70964998</v>
       </c>
       <c r="S21" s="62">
-        <f>SUM(S5:S20)</f>
+        <f t="shared" si="4"/>
         <v>1735.6804938800001</v>
       </c>
       <c r="T21" s="62">
-        <f>SUM(T5:T20)</f>
+        <f t="shared" si="4"/>
         <v>2382.5892756700005</v>
       </c>
       <c r="U21" s="62">
-        <f>SUM(U5:U20)</f>
+        <f t="shared" si="4"/>
         <v>1033.4579470100002</v>
       </c>
       <c r="V21" s="62">
-        <f>SUM(V5:V20)</f>
+        <f t="shared" si="4"/>
         <v>1055.22259861</v>
       </c>
       <c r="W21" s="62">
-        <f>SUM(W5:W20)</f>
+        <f t="shared" si="4"/>
         <v>1142.5368122500001</v>
       </c>
       <c r="X21" s="62">
-        <f>SUM(X5:X20)</f>
+        <f t="shared" si="4"/>
         <v>1481.2322870099999</v>
       </c>
       <c r="Y21" s="194">
@@ -10270,61 +11148,61 @@
         <v>-611.37070898999991</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y22" s="39"/>
     </row>
-    <row r="23" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="82"/>
       <c r="Q23" s="221"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E24" s="122"/>
       <c r="F24" s="122"/>
       <c r="G24" s="122"/>
     </row>
-    <row r="25" spans="1:26" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="262"/>
-      <c r="B25" s="264"/>
+    <row r="25" spans="1:29" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="264"/>
+      <c r="B25" s="266"/>
       <c r="C25" s="275"/>
-      <c r="D25" s="268"/>
-    </row>
-    <row r="26" spans="1:26" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="263"/>
-      <c r="B26" s="265"/>
+      <c r="D25" s="270"/>
+    </row>
+    <row r="26" spans="1:29" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="265"/>
+      <c r="B26" s="267"/>
       <c r="C26" s="276"/>
-      <c r="D26" s="269"/>
-    </row>
-    <row r="27" spans="1:26" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="271"/>
+    </row>
+    <row r="27" spans="1:29" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="25"/>
       <c r="C27" s="21"/>
       <c r="D27" s="14"/>
     </row>
-    <row r="28" spans="1:26" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="25"/>
       <c r="C28" s="21"/>
       <c r="D28" s="14"/>
     </row>
-    <row r="29" spans="1:26" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="25"/>
       <c r="C29" s="21"/>
       <c r="D29" s="14"/>
     </row>
-    <row r="30" spans="1:26" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="25"/>
       <c r="C30" s="21"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:26" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="25"/>
       <c r="C31" s="21"/>
       <c r="D31" s="14"/>
     </row>
-    <row r="32" spans="1:26" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="25"/>
       <c r="C32" s="21"/>
@@ -10391,10 +11269,10 @@
       <c r="D42" s="13"/>
     </row>
     <row r="43" spans="1:4" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="260"/>
-      <c r="B43" s="261"/>
-      <c r="C43" s="261"/>
-      <c r="D43" s="261"/>
+      <c r="A43" s="262"/>
+      <c r="B43" s="263"/>
+      <c r="C43" s="263"/>
+      <c r="D43" s="263"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -10424,10 +11302,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB65"/>
+  <dimension ref="A1:AC65"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AA13" sqref="AA13"/>
+    <sheetView topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AA5" sqref="AA5:AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10436,9 +11314,9 @@
     <col min="27" max="27" width="7.7109375" style="124"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:29" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -10466,60 +11344,60 @@
       <c r="Y1" s="82"/>
       <c r="AA1" s="123"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:27" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="262" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="264" t="s">
+    <row r="2" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:29" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="264" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="266" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="266" t="s">
+      <c r="C3" s="268" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="268" t="s">
+      <c r="D3" s="270" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="270" t="s">
+      <c r="E3" s="272" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="271"/>
-      <c r="G3" s="271"/>
-      <c r="H3" s="271"/>
-      <c r="I3" s="255" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="258" t="s">
+      <c r="F3" s="273"/>
+      <c r="G3" s="273"/>
+      <c r="H3" s="273"/>
+      <c r="I3" s="250" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="255" t="s">
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="252" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="256"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="255" t="s">
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="250" t="s">
         <v>160</v>
       </c>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="250" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
       <c r="Y3" s="166" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z3" s="167"/>
     </row>
-    <row r="4" spans="1:27" s="48" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="263"/>
-      <c r="B4" s="265"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="269"/>
+    <row r="4" spans="1:29" s="48" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="265"/>
+      <c r="B4" s="267"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="271"/>
       <c r="E4" s="64">
         <v>2015</v>
       </c>
@@ -10581,13 +11459,13 @@
         <v>2018</v>
       </c>
       <c r="Y4" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="Z4" s="151" t="s">
         <v>177</v>
       </c>
-      <c r="Z4" s="151" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -10668,8 +11546,20 @@
         <f>+X5-H5*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>66408.600000000006</v>
+      </c>
+      <c r="AB5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>34754.6</v>
+      </c>
+      <c r="AC5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>34770.699999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f>+A5+1</f>
         <v>2</v>
@@ -10751,8 +11641,20 @@
         <f>+X6-H6*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>74166</v>
+      </c>
+      <c r="AB6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>38822</v>
+      </c>
+      <c r="AC6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>38680</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f t="shared" ref="A7:A29" si="0">+A6+1</f>
         <v>3</v>
@@ -10834,8 +11736,20 @@
         <f>+X7-H7*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>64112</v>
+      </c>
+      <c r="AB7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33879</v>
+      </c>
+      <c r="AC7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>33878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -10917,8 +11831,20 @@
         <f>+X8-H8*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>86745</v>
+      </c>
+      <c r="AB8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>37515</v>
+      </c>
+      <c r="AC8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>37521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -11000,8 +11926,20 @@
         <f>+X9-H9*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>87077</v>
+      </c>
+      <c r="AB9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>37750</v>
+      </c>
+      <c r="AC9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>37736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -11083,8 +12021,20 @@
         <f>+X10-H10*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>85631.2</v>
+      </c>
+      <c r="AB10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>38335.4</v>
+      </c>
+      <c r="AC10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>38307.199999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -11166,8 +12116,20 @@
         <f>+X11-H11*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>88678.11</v>
+      </c>
+      <c r="AB11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>39620.01</v>
+      </c>
+      <c r="AC11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>39658.050000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -11249,8 +12211,20 @@
         <f>+X12-H12*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>86840.43</v>
+      </c>
+      <c r="AB12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>36515.18</v>
+      </c>
+      <c r="AC12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>36503.629999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -11332,8 +12306,20 @@
         <f>+X13-H13*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>74247.899999999994</v>
+      </c>
+      <c r="AB13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>31854.400000000001</v>
+      </c>
+      <c r="AC13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -11415,8 +12401,20 @@
         <f>+X14-H14*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>75174</v>
+      </c>
+      <c r="AB14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>39069</v>
+      </c>
+      <c r="AC14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>39158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -11498,8 +12496,20 @@
         <f>+X15-H15*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>62711.98</v>
+      </c>
+      <c r="AB15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33858.480000000003</v>
+      </c>
+      <c r="AC15">
+        <f>VLOOKUP($B15,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>33861.980000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -11581,14 +12591,26 @@
         <f>+X16-H16*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <f>VLOOKUP($B16,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>5</v>
@@ -11664,8 +12686,20 @@
         <f>+X17-H17*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="18" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>64917.8</v>
+      </c>
+      <c r="AB17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>35583.93</v>
+      </c>
+      <c r="AC17">
+        <f>VLOOKUP($B17,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>35564.43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -11747,8 +12781,20 @@
         <f>+X18-H18*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="19" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>66469.259999999995</v>
+      </c>
+      <c r="AB18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>38960.629999999997</v>
+      </c>
+      <c r="AC18">
+        <f>VLOOKUP($B18,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>38962.160000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -11830,8 +12876,20 @@
         <f>+X19-H19*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>63976.29</v>
+      </c>
+      <c r="AB19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33248.379999999997</v>
+      </c>
+      <c r="AC19">
+        <f>VLOOKUP($B19,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>33244.14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -11913,8 +12971,20 @@
         <f>+X20-H20*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>60792</v>
+      </c>
+      <c r="AB20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>31304</v>
+      </c>
+      <c r="AC20">
+        <f>VLOOKUP($B20,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>31304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -11996,8 +13066,20 @@
         <f>+X21-H21*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA21">
+        <f>VLOOKUP($B21,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>69273.83</v>
+      </c>
+      <c r="AB21">
+        <f>VLOOKUP($B21,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>38890.199999999997</v>
+      </c>
+      <c r="AC21">
+        <f>VLOOKUP($B21,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>38958.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -12079,8 +13161,20 @@
         <f>+X22-H22*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="23" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA22">
+        <f>VLOOKUP($B22,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>62230.9</v>
+      </c>
+      <c r="AB22">
+        <f>VLOOKUP($B22,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>36540.46</v>
+      </c>
+      <c r="AC22">
+        <f>VLOOKUP($B22,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -12162,8 +13256,20 @@
         <f>+X23-H23*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="24" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA23">
+        <f>VLOOKUP($B23,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>70452</v>
+      </c>
+      <c r="AB23">
+        <f>VLOOKUP($B23,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>38467</v>
+      </c>
+      <c r="AC23">
+        <f>VLOOKUP($B23,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>38468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -12245,8 +13351,20 @@
         <f>+X24-H24*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA24">
+        <f>VLOOKUP($B24,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>79399</v>
+      </c>
+      <c r="AB24">
+        <f>VLOOKUP($B24,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>30681</v>
+      </c>
+      <c r="AC24">
+        <f>VLOOKUP($B24,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>30654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -12328,8 +13446,20 @@
         <f>+X25-H25*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="26" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA25">
+        <f>VLOOKUP($B25,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>68051.5</v>
+      </c>
+      <c r="AB25">
+        <f>VLOOKUP($B25,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>34219.300000000003</v>
+      </c>
+      <c r="AC25">
+        <f>VLOOKUP($B25,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>34165.800000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -12411,8 +13541,20 @@
         <f>+X26-H26*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="27" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA26">
+        <f>VLOOKUP($B26,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>77344.7</v>
+      </c>
+      <c r="AB26">
+        <f>VLOOKUP($B26,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>29266.6</v>
+      </c>
+      <c r="AC26">
+        <f>VLOOKUP($B26,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>29156</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -12494,8 +13636,20 @@
         <f>+X27-H27*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AA27">
+        <f>VLOOKUP($B27,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>75924.53</v>
+      </c>
+      <c r="AB27">
+        <f>VLOOKUP($B27,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>32225.06</v>
+      </c>
+      <c r="AC27">
+        <f>VLOOKUP($B27,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -12577,8 +13731,20 @@
         <f>+X28-H28*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AA28">
+        <f>VLOOKUP($B28,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>94940</v>
+      </c>
+      <c r="AB28">
+        <f>VLOOKUP($B28,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>45585</v>
+      </c>
+      <c r="AC28">
+        <f>VLOOKUP($B28,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="51">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -12660,44 +13826,56 @@
         <f>+X29-H29*0.9*#REF!*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="260" t="s">
-        <v>165</v>
-      </c>
-      <c r="B30" s="261"/>
-      <c r="C30" s="261"/>
-      <c r="D30" s="261"/>
+      <c r="AA29">
+        <f>VLOOKUP($B29,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>75226.009999999995</v>
+      </c>
+      <c r="AB29">
+        <f>VLOOKUP($B29,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>32463</v>
+      </c>
+      <c r="AC29">
+        <f>VLOOKUP($B29,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>32480.080000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="262" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="263"/>
+      <c r="C30" s="263"/>
+      <c r="D30" s="263"/>
       <c r="E30" s="65">
-        <f>SUM(E5:E29)</f>
+        <f t="shared" ref="E30:L30" si="1">SUM(E5:E29)</f>
         <v>27473.25</v>
       </c>
       <c r="F30" s="65">
-        <f>SUM(F5:F29)</f>
+        <f t="shared" si="1"/>
         <v>30184.83</v>
       </c>
       <c r="G30" s="65">
-        <f>SUM(G5:G29)</f>
+        <f t="shared" si="1"/>
         <v>30108</v>
       </c>
       <c r="H30" s="65">
-        <f>SUM(H5:H29)</f>
+        <f t="shared" si="1"/>
         <v>28022.75</v>
       </c>
       <c r="I30" s="65">
-        <f>SUM(I5:I29)</f>
+        <f t="shared" si="1"/>
         <v>19156.641989189149</v>
       </c>
       <c r="J30" s="69">
-        <f>SUM(J5:J29)</f>
+        <f t="shared" si="1"/>
         <v>19852.160506208722</v>
       </c>
       <c r="K30" s="69">
-        <f>SUM(K5:K29)</f>
+        <f t="shared" si="1"/>
         <v>20050.343773412998</v>
       </c>
       <c r="L30" s="69">
-        <f>SUM(L5:L29)</f>
+        <f t="shared" si="1"/>
         <v>19653.127629885981</v>
       </c>
       <c r="M30" s="62">
@@ -12705,47 +13883,47 @@
         <v>27630.605199999995</v>
       </c>
       <c r="N30" s="62">
-        <f t="shared" ref="N30:P30" si="1">SUM(N4:N29)/25</f>
+        <f t="shared" ref="N30:P30" si="2">SUM(N4:N29)/25</f>
         <v>27813.206000000002</v>
       </c>
       <c r="O30" s="62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>30207.569199999998</v>
       </c>
       <c r="P30" s="62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39008.928399999997</v>
       </c>
       <c r="Q30" s="84">
-        <f>SUM(Q5:Q29)</f>
+        <f t="shared" ref="Q30:X30" si="3">SUM(Q5:Q29)</f>
         <v>11525.569105830002</v>
       </c>
       <c r="R30" s="62">
-        <f>SUM(R5:R29)</f>
+        <f t="shared" si="3"/>
         <v>12146.470672649999</v>
       </c>
       <c r="S30" s="62">
-        <f>SUM(S5:S29)</f>
+        <f t="shared" si="3"/>
         <v>13004.996353680002</v>
       </c>
       <c r="T30" s="62">
-        <f>SUM(T5:T29)</f>
+        <f t="shared" si="3"/>
         <v>15858.669230329997</v>
       </c>
       <c r="U30" s="62">
-        <f>SUM(U5:U29)</f>
+        <f t="shared" si="3"/>
         <v>6199.5278301700018</v>
       </c>
       <c r="V30" s="62">
-        <f>SUM(V5:V29)</f>
+        <f t="shared" si="3"/>
         <v>6578.4100976400005</v>
       </c>
       <c r="W30" s="62">
-        <f>SUM(W5:W29)</f>
+        <f t="shared" si="3"/>
         <v>7260.2987039999998</v>
       </c>
       <c r="X30" s="62">
-        <f>SUM(X5:X29)</f>
+        <f t="shared" si="3"/>
         <v>9200.9419122300005</v>
       </c>
       <c r="Y30" s="185" t="e">
@@ -12757,12 +13935,12 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="31" spans="1:26" ht="96" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="Y31" s="39"/>
     </row>
-    <row r="32" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:29" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12772,24 +13950,24 @@
       <c r="G33" s="122"/>
     </row>
     <row r="34" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="262" t="s">
-        <v>164</v>
-      </c>
-      <c r="B34" s="264" t="s">
+      <c r="A34" s="264" t="s">
+        <v>163</v>
+      </c>
+      <c r="B34" s="266" t="s">
         <v>0</v>
       </c>
       <c r="C34" s="275" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="268" t="s">
+      <c r="D34" s="270" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="263"/>
-      <c r="B35" s="265"/>
+      <c r="A35" s="265"/>
+      <c r="B35" s="267"/>
       <c r="C35" s="276"/>
-      <c r="D35" s="269"/>
+      <c r="D35" s="271"/>
     </row>
     <row r="36" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16">
@@ -12822,7 +14000,7 @@
     </row>
     <row r="38" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16">
-        <f t="shared" ref="A38:A60" si="2">+A37+1</f>
+        <f t="shared" ref="A38:A60" si="4">+A37+1</f>
         <v>3</v>
       </c>
       <c r="B38" s="60" t="s">
@@ -12837,7 +14015,7 @@
     </row>
     <row r="39" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B39" s="60" t="s">
@@ -12852,7 +14030,7 @@
     </row>
     <row r="40" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B40" s="60" t="s">
@@ -12867,7 +14045,7 @@
     </row>
     <row r="41" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B41" s="60" t="s">
@@ -12882,7 +14060,7 @@
     </row>
     <row r="42" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B42" s="60" t="s">
@@ -12897,7 +14075,7 @@
     </row>
     <row r="43" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B43" s="60" t="s">
@@ -12912,7 +14090,7 @@
     </row>
     <row r="44" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B44" s="60" t="s">
@@ -12927,7 +14105,7 @@
     </row>
     <row r="45" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B45" s="60" t="s">
@@ -12942,7 +14120,7 @@
     </row>
     <row r="46" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B46" s="60" t="s">
@@ -12957,7 +14135,7 @@
     </row>
     <row r="47" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B47" s="60" t="s">
@@ -12972,11 +14150,11 @@
     </row>
     <row r="48" spans="1:7" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B48" s="60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C48" s="21" t="s">
         <v>5</v>
@@ -12987,7 +14165,7 @@
     </row>
     <row r="49" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B49" s="60" t="s">
@@ -13002,7 +14180,7 @@
     </row>
     <row r="50" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B50" s="60" t="s">
@@ -13017,7 +14195,7 @@
     </row>
     <row r="51" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B51" s="60" t="s">
@@ -13032,7 +14210,7 @@
     </row>
     <row r="52" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B52" s="60" t="s">
@@ -13047,7 +14225,7 @@
     </row>
     <row r="53" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B53" s="60" t="s">
@@ -13062,7 +14240,7 @@
     </row>
     <row r="54" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B54" s="60" t="s">
@@ -13077,7 +14255,7 @@
     </row>
     <row r="55" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B55" s="60" t="s">
@@ -13092,7 +14270,7 @@
     </row>
     <row r="56" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B56" s="60" t="s">
@@ -13107,7 +14285,7 @@
     </row>
     <row r="57" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B57" s="60" t="s">
@@ -13122,7 +14300,7 @@
     </row>
     <row r="58" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B58" s="60" t="s">
@@ -13137,7 +14315,7 @@
     </row>
     <row r="59" spans="1:4" ht="28.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B59" s="60" t="s">
@@ -13152,7 +14330,7 @@
     </row>
     <row r="60" spans="1:4" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B60" s="61" t="s">
@@ -13166,12 +14344,12 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="28.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="260" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" s="261"/>
-      <c r="C61" s="261"/>
-      <c r="D61" s="261"/>
+      <c r="A61" s="262" t="s">
+        <v>164</v>
+      </c>
+      <c r="B61" s="263"/>
+      <c r="C61" s="263"/>
+      <c r="D61" s="263"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D62" s="95"/>
@@ -13187,12 +14365,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="U3:X3"/>
-    <mergeCell ref="Q3:T3"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="B3:B4"/>
@@ -13202,6 +14374,12 @@
     <mergeCell ref="B34:B35"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="D34:D35"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="U3:X3"/>
+    <mergeCell ref="Q3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="25" orientation="landscape" r:id="rId1"/>
@@ -13213,10 +14391,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="AB5" sqref="AB5:AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13224,9 +14402,9 @@
     <col min="4" max="4" width="7.7109375" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -13247,12 +14425,12 @@
       <c r="R1" s="82"/>
       <c r="S1" s="82"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="249"/>
     </row>
-    <row r="3" spans="1:27" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="103" t="s">
         <v>0</v>
@@ -13263,43 +14441,43 @@
       <c r="D3" s="245" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="255" t="s">
+      <c r="E3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="257"/>
-      <c r="I3" s="255" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="257"/>
-      <c r="M3" s="258" t="s">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="274"/>
+      <c r="I3" s="250" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="256" t="s">
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="252" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="256"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="256" t="s">
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="251" t="s">
         <v>160</v>
       </c>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
       <c r="Y3" s="140"/>
-      <c r="Z3" s="250" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA3" s="252"/>
-    </row>
-    <row r="4" spans="1:27" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="254" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA3" s="256"/>
+    </row>
+    <row r="4" spans="1:30" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102"/>
       <c r="B4" s="104"/>
       <c r="C4" s="106"/>
@@ -13366,13 +14544,13 @@
       </c>
       <c r="Y4" s="141"/>
       <c r="Z4" s="243" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA4" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" s="149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="237">
         <v>1</v>
       </c>
@@ -13456,8 +14634,20 @@
         <f>+X5-#REF!*0.9*Y5*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>61139</v>
+      </c>
+      <c r="AC5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>35400</v>
+      </c>
+      <c r="AD5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="237">
         <f t="shared" ref="A6:A12" si="0">+A5+1</f>
         <v>2</v>
@@ -13542,8 +14732,20 @@
         <f>+X6-#REF!*0.9*Y6*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>53492</v>
+      </c>
+      <c r="AC6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>37946</v>
+      </c>
+      <c r="AD6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="237">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -13628,8 +14830,20 @@
         <f>+X7-#REF!*0.9*Y7*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>54030</v>
+      </c>
+      <c r="AC7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>32462</v>
+      </c>
+      <c r="AD7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="237">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -13714,8 +14928,20 @@
         <f>+X8-#REF!*0.9*Y8*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>62095.39</v>
+      </c>
+      <c r="AC8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>36682.58</v>
+      </c>
+      <c r="AD8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="237">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -13800,14 +15026,26 @@
         <f>+X9-#REF!*0.9*Y9*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>67486.2</v>
+      </c>
+      <c r="AC9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>42150.28</v>
+      </c>
+      <c r="AD9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="237">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="C10" s="21" t="s">
         <v>62</v>
@@ -13886,14 +15124,26 @@
         <f>+X10-#REF!*0.9*Y10*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>65141</v>
+      </c>
+      <c r="AC10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>41426</v>
+      </c>
+      <c r="AD10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="237">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>62</v>
@@ -13972,14 +15222,26 @@
         <f>+X11-#REF!*0.9*Y11*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>59546.400000000001</v>
+      </c>
+      <c r="AC11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>40899.199999999997</v>
+      </c>
+      <c r="AD11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="237">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>62</v>
@@ -14058,44 +15320,56 @@
         <f>+X12-#REF!*0.9*Y12*12/1000000</f>
         <v>#REF!</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>70274.789999999994</v>
+      </c>
+      <c r="AC12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>38957.32</v>
+      </c>
+      <c r="AD12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" s="110"/>
       <c r="C13" s="110"/>
       <c r="D13" s="111"/>
       <c r="E13" s="207">
-        <f>SUM(E5:E12)</f>
+        <f t="shared" ref="E13:L13" si="1">SUM(E5:E12)</f>
         <v>1159.25</v>
       </c>
       <c r="F13" s="206">
-        <f>SUM(F5:F12)</f>
+        <f t="shared" si="1"/>
         <v>1283</v>
       </c>
       <c r="G13" s="206">
-        <f>SUM(G5:G12)</f>
+        <f t="shared" si="1"/>
         <v>1278.5</v>
       </c>
       <c r="H13" s="62">
-        <f>SUM(H5:H12)</f>
+        <f t="shared" si="1"/>
         <v>1159.75</v>
       </c>
       <c r="I13" s="213">
-        <f>SUM(I5:I12)</f>
+        <f t="shared" si="1"/>
         <v>804.74130848430229</v>
       </c>
       <c r="J13" s="214">
-        <f>SUM(J5:J12)</f>
+        <f t="shared" si="1"/>
         <v>814.04215801552675</v>
       </c>
       <c r="K13" s="215">
-        <f>SUM(K5:K12)</f>
+        <f t="shared" si="1"/>
         <v>841.76265839265977</v>
       </c>
       <c r="L13" s="215">
-        <f>SUM(L5:L12)</f>
+        <f t="shared" si="1"/>
         <v>829.1491177480832</v>
       </c>
       <c r="M13" s="207">
@@ -14115,35 +15389,35 @@
         <v>44091.756249999999</v>
       </c>
       <c r="Q13" s="222">
-        <f>SUM(Q5:Q12)</f>
+        <f t="shared" ref="Q13:X13" si="2">SUM(Q5:Q12)</f>
         <v>544.08211968000001</v>
       </c>
       <c r="R13" s="217">
-        <f>SUM(R5:R12)</f>
+        <f t="shared" si="2"/>
         <v>583.14206581999997</v>
       </c>
       <c r="S13" s="206">
-        <f>SUM(S5:S12)</f>
+        <f t="shared" si="2"/>
         <v>601.1008237100001</v>
       </c>
       <c r="T13" s="217">
-        <f>SUM(T5:T12)</f>
+        <f t="shared" si="2"/>
         <v>735.30990208000014</v>
       </c>
       <c r="U13" s="216">
-        <f>SUM(U5:U12)</f>
+        <f t="shared" si="2"/>
         <v>323.60719304000003</v>
       </c>
       <c r="V13" s="217">
-        <f>SUM(V5:V12)</f>
+        <f t="shared" si="2"/>
         <v>330.89820735000001</v>
       </c>
       <c r="W13" s="217">
-        <f>SUM(W5:W12)</f>
+        <f t="shared" si="2"/>
         <v>352.24378613000005</v>
       </c>
       <c r="X13" s="217">
-        <f>SUM(X5:X12)</f>
+        <f t="shared" si="2"/>
         <v>445.96983614000004</v>
       </c>
       <c r="Y13" s="6">
@@ -14155,10 +15429,10 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D15" s="120"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="D16" s="120"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14169,14 +15443,14 @@
       <c r="B18" s="103"/>
       <c r="C18" s="105"/>
       <c r="D18" s="116"/>
-      <c r="E18" s="256"/>
-      <c r="F18" s="256"/>
-      <c r="G18" s="256"/>
-      <c r="H18" s="256"/>
-      <c r="I18" s="256"/>
-      <c r="J18" s="256"/>
-      <c r="K18" s="256"/>
-      <c r="L18" s="256"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
       <c r="M18" s="242"/>
       <c r="N18" s="186"/>
     </row>
@@ -14342,14 +15616,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="U3:X3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:L18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="58" orientation="landscape" r:id="rId1"/>
@@ -14361,10 +15635,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+      <selection activeCell="AB5" sqref="AB5:AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14372,9 +15646,9 @@
     <col min="4" max="4" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -14400,10 +15674,10 @@
       <c r="W1" s="82"/>
       <c r="X1" s="82"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:27" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="103" t="s">
         <v>0</v>
@@ -14414,43 +15688,43 @@
       <c r="D3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="255" t="s">
+      <c r="E3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="255" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="258" t="s">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="250" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="255" t="s">
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="252" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="256"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="255" t="s">
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="250" t="s">
         <v>160</v>
       </c>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="250" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
       <c r="Y3" s="173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z3" s="167"/>
       <c r="AA3" s="43"/>
     </row>
-    <row r="4" spans="1:27" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="102"/>
       <c r="B4" s="104"/>
       <c r="C4" s="106"/>
@@ -14516,14 +15790,14 @@
         <v>2018</v>
       </c>
       <c r="Y4" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z4" s="178"/>
       <c r="AA4" s="149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -14607,8 +15881,20 @@
         <f>+X5-H5*0.9*Z5*12/1000000</f>
         <v>-34.085786969999987</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>77322.44</v>
+      </c>
+      <c r="AC5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>39293.14</v>
+      </c>
+      <c r="AD5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>39677.410000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f>+A5+1</f>
         <v>2</v>
@@ -14693,14 +15979,26 @@
         <f>+X6-H6*0.9*Z6*12/1000000</f>
         <v>-8.1560074199999804</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>70260.98</v>
+      </c>
+      <c r="AC6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>34593.21</v>
+      </c>
+      <c r="AD6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>34502.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <f>+A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>5</v>
@@ -14779,44 +16077,56 @@
         <f>+X7-H7*0.9*Z7*12/1000000</f>
         <v>38.907539419999978</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>85422.46</v>
+      </c>
+      <c r="AC7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>43168.19</v>
+      </c>
+      <c r="AD7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>43133.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="109" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B8" s="110"/>
       <c r="C8" s="110"/>
       <c r="D8" s="111"/>
       <c r="E8" s="65">
-        <f>SUM(E5:E7)</f>
+        <f t="shared" ref="E8:L8" si="0">SUM(E5:E7)</f>
         <v>1599.75</v>
       </c>
       <c r="F8" s="62">
-        <f>SUM(F5:F7)</f>
+        <f t="shared" si="0"/>
         <v>1753.75</v>
       </c>
       <c r="G8" s="62">
-        <f>SUM(G5:G7)</f>
+        <f t="shared" si="0"/>
         <v>1724.25</v>
       </c>
       <c r="H8" s="62">
-        <f>SUM(H5:H7)</f>
+        <f t="shared" si="0"/>
         <v>1484</v>
       </c>
       <c r="I8" s="113">
-        <f>SUM(I5:I7)</f>
+        <f t="shared" si="0"/>
         <v>1224.6861782777983</v>
       </c>
       <c r="J8" s="69">
-        <f>SUM(J5:J7)</f>
+        <f t="shared" si="0"/>
         <v>1263</v>
       </c>
       <c r="K8" s="69">
-        <f>SUM(K5:K7)</f>
+        <f t="shared" si="0"/>
         <v>1194</v>
       </c>
       <c r="L8" s="69">
-        <f>SUM(L5:L7)</f>
+        <f t="shared" si="0"/>
         <v>1130</v>
       </c>
       <c r="M8" s="65">
@@ -14836,35 +16146,35 @@
         <v>42962.433333333327</v>
       </c>
       <c r="Q8" s="65">
-        <f>SUM(Q5:Q7)</f>
+        <f t="shared" ref="Q8:X8" si="1">SUM(Q5:Q7)</f>
         <v>1129.27917286</v>
       </c>
       <c r="R8" s="62">
-        <f>SUM(R5:R7)</f>
+        <f t="shared" si="1"/>
         <v>1089.99601381</v>
       </c>
       <c r="S8" s="62">
-        <f>SUM(S5:S7)</f>
+        <f t="shared" si="1"/>
         <v>1098.3819791800001</v>
       </c>
       <c r="T8" s="62">
-        <f>SUM(T5:T7)</f>
+        <f t="shared" si="1"/>
         <v>1268.4353105499999</v>
       </c>
       <c r="U8" s="65">
-        <f>SUM(U5:U7)</f>
+        <f t="shared" si="1"/>
         <v>491.93340713000003</v>
       </c>
       <c r="V8" s="62">
-        <f>SUM(V5:V7)</f>
+        <f t="shared" si="1"/>
         <v>500.66935374999997</v>
       </c>
       <c r="W8" s="62">
-        <f>SUM(W5:W7)</f>
+        <f t="shared" si="1"/>
         <v>532.53038816999992</v>
       </c>
       <c r="X8" s="62">
-        <f>SUM(X5:X7)</f>
+        <f t="shared" si="1"/>
         <v>680.17774342999996</v>
       </c>
       <c r="Y8" s="175"/>
@@ -14874,38 +16184,38 @@
         <v>-42.241794389999967</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:27" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="101"/>
       <c r="B11" s="103"/>
       <c r="C11" s="105"/>
       <c r="D11" s="116"/>
     </row>
-    <row r="12" spans="1:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="102"/>
       <c r="B12" s="104"/>
       <c r="C12" s="106"/>
       <c r="D12" s="117"/>
     </row>
-    <row r="13" spans="1:27" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16"/>
       <c r="B13" s="25"/>
       <c r="C13" s="21"/>
       <c r="D13" s="49"/>
     </row>
-    <row r="14" spans="1:27" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16"/>
       <c r="B14" s="25"/>
       <c r="C14" s="21"/>
       <c r="D14" s="49"/>
     </row>
-    <row r="15" spans="1:27" ht="34.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" ht="34.700000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="16"/>
       <c r="B15" s="25"/>
       <c r="C15" s="21"/>
       <c r="D15" s="49"/>
     </row>
-    <row r="16" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="109"/>
       <c r="B16" s="110"/>
       <c r="C16" s="110"/>
@@ -14929,10 +16239,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA31"/>
+  <dimension ref="A1:AD31"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+      <selection activeCell="AB5" sqref="AB5:AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14940,9 +16250,9 @@
     <col min="4" max="4" width="7.7109375" style="95"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -14961,10 +16271,10 @@
       <c r="P1" s="82"/>
       <c r="Q1" s="82"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:27" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="103" t="s">
         <v>0</v>
@@ -14975,43 +16285,43 @@
       <c r="D3" s="93" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="255" t="s">
+      <c r="E3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="255" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="258" t="s">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="250" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="256" t="s">
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="252" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="256"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="256" t="s">
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="251" t="s">
         <v>160</v>
       </c>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="251" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
       <c r="Y3" s="140"/>
-      <c r="Z3" s="250" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA3" s="252"/>
-    </row>
-    <row r="4" spans="1:27" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="254" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA3" s="256"/>
+    </row>
+    <row r="4" spans="1:30" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="102"/>
       <c r="B4" s="104"/>
       <c r="C4" s="106"/>
@@ -15078,13 +16388,13 @@
       </c>
       <c r="Y4" s="141"/>
       <c r="Z4" s="150" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA4" s="149" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" s="149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -15161,15 +16471,27 @@
         <v>42647</v>
       </c>
       <c r="Z5" s="131">
-        <f>+X5-(Y5*12*L5)/1000000</f>
+        <f t="shared" ref="Z5:Z14" si="0">+X5-(Y5*12*L5)/1000000</f>
         <v>-2.4390054699999979</v>
       </c>
       <c r="AA5" s="161">
-        <f>+X5-H5*0.9*Y5*12/1000000</f>
+        <f t="shared" ref="AA5:AA14" si="1">+X5-H5*0.9*Y5*12/1000000</f>
         <v>-7.2751752699999983</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f>+A5+1</f>
         <v>2</v>
@@ -15247,17 +16569,29 @@
         <v>42647</v>
       </c>
       <c r="Z6" s="131">
-        <f>+X6-(Y6*12*L6)/1000000</f>
+        <f t="shared" si="0"/>
         <v>-19.372220380000002</v>
       </c>
       <c r="AA6" s="161">
-        <f>+X6-H6*0.9*Y6*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-75.48714298000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>86311.6</v>
+      </c>
+      <c r="AC6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>37838.9</v>
+      </c>
+      <c r="AD6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>37710.300000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <f t="shared" ref="A7:A14" si="0">+A6+1</f>
+        <f t="shared" ref="A7:A14" si="2">+A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="25" t="s">
@@ -15333,21 +16667,33 @@
         <v>42647</v>
       </c>
       <c r="Z7" s="133">
-        <f>+X7-(Y7*12*L7)/1000000</f>
+        <f t="shared" si="0"/>
         <v>9.7592275000000086</v>
       </c>
       <c r="AA7" s="161">
-        <f>+X7-H7*0.9*Y7*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-51.063923899999963</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>67489</v>
+      </c>
+      <c r="AC7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>34009</v>
+      </c>
+      <c r="AD7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>34010</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>5</v>
@@ -15419,17 +16765,29 @@
         <v>42647</v>
       </c>
       <c r="Z8" s="133">
-        <f>+X8-(Y8*12*L8)/1000000</f>
+        <f t="shared" si="0"/>
         <v>20.561772870000006</v>
       </c>
       <c r="AA8" s="161">
-        <f>+X8-H8*0.9*Y8*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-24.652576530000005</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>67009</v>
+      </c>
+      <c r="AC8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>42662</v>
+      </c>
+      <c r="AD8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -15505,17 +16863,29 @@
         <v>42647</v>
       </c>
       <c r="Z9" s="133">
-        <f>+X9-(Y9*12*L9)/1000000</f>
+        <f t="shared" si="0"/>
         <v>9.043258939999987</v>
       </c>
       <c r="AA9" s="161">
-        <f>+X9-H9*0.9*Y9*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-182.57397676000011</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>69829</v>
+      </c>
+      <c r="AC9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>44652</v>
+      </c>
+      <c r="AD9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B10" s="25" t="s">
@@ -15591,17 +16961,29 @@
         <v>42647</v>
       </c>
       <c r="Z10" s="133">
-        <f>+X10-(Y10*12*L10)/1000000</f>
+        <f t="shared" si="0"/>
         <v>3.0993123500000195</v>
       </c>
       <c r="AA10" s="161">
-        <f>+X10-H10*0.9*Y10*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-58.772955250000024</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>59680</v>
+      </c>
+      <c r="AC10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>35145</v>
+      </c>
+      <c r="AD10">
+        <f>VLOOKUP($B10,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>34725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B11" s="25" t="s">
@@ -15677,17 +17059,29 @@
         <v>42647</v>
       </c>
       <c r="Z11" s="131">
-        <f>+X11-(Y11*12*L11)/1000000</f>
+        <f t="shared" si="0"/>
         <v>-8.0616507100000092</v>
       </c>
       <c r="AA11" s="161">
-        <f>+X11-H11*0.9*Y11*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-55.335850210000018</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>73318.94</v>
+      </c>
+      <c r="AC11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>47524.13</v>
+      </c>
+      <c r="AD11">
+        <f>VLOOKUP($B11,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B12" s="25" t="s">
@@ -15763,17 +17157,29 @@
         <v>42647</v>
       </c>
       <c r="Z12" s="133">
-        <f>+X12-(Y12*12*L12)/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.36768366999999991</v>
       </c>
       <c r="AA12" s="161">
-        <f>+X12-H12*0.9*Y12*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-1.9864307299999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f>VLOOKUP($B12,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B13" s="25" t="s">
@@ -15849,21 +17255,33 @@
         <v>42647</v>
       </c>
       <c r="Z13" s="131">
-        <f>+X13-(Y13*12*L13)/1000000</f>
+        <f t="shared" si="0"/>
         <v>-2.357943579999997</v>
       </c>
       <c r="AA13" s="161">
-        <f>+X13-H13*0.9*Y13*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-13.872633579999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>43322.12</v>
+      </c>
+      <c r="AC13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>28282.05</v>
+      </c>
+      <c r="AD13">
+        <f>VLOOKUP($B13,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>5</v>
@@ -15935,51 +17353,63 @@
         <v>42647</v>
       </c>
       <c r="Z14" s="142">
-        <f>+X14-(Y14*12*L14)/1000000</f>
+        <f t="shared" si="0"/>
         <v>8.8848041200000001</v>
       </c>
       <c r="AA14" s="161">
-        <f>+X14-H14*0.9*Y14*12/1000000</f>
+        <f t="shared" si="1"/>
         <v>-0.86430008000000313</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>80347.56</v>
+      </c>
+      <c r="AC14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>56494.44</v>
+      </c>
+      <c r="AD14">
+        <f>VLOOKUP($B14,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="109" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="110"/>
       <c r="C15" s="110"/>
       <c r="D15" s="111"/>
       <c r="E15" s="65">
-        <f>SUM(E5:E14)</f>
+        <f t="shared" ref="E15:L15" si="3">SUM(E5:E14)</f>
         <v>3089</v>
       </c>
       <c r="F15" s="62">
-        <f>SUM(F5:F14)</f>
+        <f t="shared" si="3"/>
         <v>3688</v>
       </c>
       <c r="G15" s="62">
-        <f>SUM(G5:G14)</f>
+        <f t="shared" si="3"/>
         <v>3901.25</v>
       </c>
       <c r="H15" s="62">
-        <f>SUM(H5:H14)</f>
+        <f t="shared" si="3"/>
         <v>3703.5</v>
       </c>
       <c r="I15" s="113">
-        <f>SUM(I5:I14)</f>
+        <f t="shared" si="3"/>
         <v>2101</v>
       </c>
       <c r="J15" s="69">
-        <f>SUM(J5:J14)</f>
+        <f t="shared" si="3"/>
         <v>2120</v>
       </c>
       <c r="K15" s="69">
-        <f>SUM(K5:K14)</f>
+        <f t="shared" si="3"/>
         <v>2363.037406990079</v>
       </c>
       <c r="L15" s="69">
-        <f>SUM(L5:L14)</f>
+        <f t="shared" si="3"/>
         <v>2373</v>
       </c>
       <c r="M15" s="65">
@@ -15999,35 +17429,35 @@
         <v>51803.492500000008</v>
       </c>
       <c r="Q15" s="63">
-        <f>SUM(Q5:Q14)</f>
+        <f t="shared" ref="Q15:X15" si="4">SUM(Q5:Q14)</f>
         <v>1465.3612744599998</v>
       </c>
       <c r="R15" s="62">
-        <f>SUM(R5:R14)</f>
+        <f t="shared" si="4"/>
         <v>1562.6045669800001</v>
       </c>
       <c r="S15" s="62">
-        <f>SUM(S5:S14)</f>
+        <f t="shared" si="4"/>
         <v>1876.10194791</v>
       </c>
       <c r="T15" s="62">
-        <f>SUM(T5:T14)</f>
+        <f t="shared" si="4"/>
         <v>2423.86305232</v>
       </c>
       <c r="U15" s="65">
-        <f>SUM(U5:U14)</f>
+        <f t="shared" si="4"/>
         <v>772.37060652000002</v>
       </c>
       <c r="V15" s="62">
-        <f>SUM(V5:V14)</f>
+        <f t="shared" si="4"/>
         <v>810.42474263000008</v>
       </c>
       <c r="W15" s="62">
-        <f>SUM(W5:W14)</f>
+        <f t="shared" si="4"/>
         <v>913.74226873000009</v>
       </c>
       <c r="X15" s="62">
-        <f>SUM(X5:X14)</f>
+        <f t="shared" si="4"/>
         <v>1233.9012113099996</v>
       </c>
       <c r="Y15" s="146">
@@ -16141,10 +17571,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16152,9 +17582,9 @@
     <col min="4" max="4" width="7.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:30" s="81" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A1" s="82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B1" s="82"/>
       <c r="C1" s="82"/>
@@ -16180,10 +17610,10 @@
       <c r="W1" s="82"/>
       <c r="X1" s="82"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:27" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="101" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B3" s="103" t="s">
         <v>0</v>
@@ -16194,43 +17624,43 @@
       <c r="D3" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="255" t="s">
+      <c r="E3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="256"/>
-      <c r="G3" s="256"/>
-      <c r="H3" s="256"/>
-      <c r="I3" s="255" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" s="256"/>
-      <c r="K3" s="256"/>
-      <c r="L3" s="256"/>
-      <c r="M3" s="258" t="s">
+      <c r="F3" s="251"/>
+      <c r="G3" s="251"/>
+      <c r="H3" s="251"/>
+      <c r="I3" s="250" t="s">
         <v>162</v>
       </c>
-      <c r="N3" s="259"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="259"/>
-      <c r="Q3" s="256" t="s">
+      <c r="J3" s="251"/>
+      <c r="K3" s="251"/>
+      <c r="L3" s="251"/>
+      <c r="M3" s="252" t="s">
         <v>161</v>
       </c>
-      <c r="R3" s="256"/>
-      <c r="S3" s="256"/>
-      <c r="T3" s="256"/>
-      <c r="U3" s="255" t="s">
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="251" t="s">
         <v>160</v>
       </c>
-      <c r="V3" s="256"/>
-      <c r="W3" s="256"/>
-      <c r="X3" s="256"/>
+      <c r="R3" s="251"/>
+      <c r="S3" s="251"/>
+      <c r="T3" s="251"/>
+      <c r="U3" s="250" t="s">
+        <v>159</v>
+      </c>
+      <c r="V3" s="251"/>
+      <c r="W3" s="251"/>
+      <c r="X3" s="251"/>
       <c r="Y3" s="173" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Z3" s="167"/>
       <c r="AA3" s="43"/>
     </row>
-    <row r="4" spans="1:27" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="48" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="102"/>
       <c r="B4" s="104"/>
       <c r="C4" s="106"/>
@@ -16296,14 +17726,14 @@
         <v>2018</v>
       </c>
       <c r="Y4" s="64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z4" s="179"/>
       <c r="AA4" s="149" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -16387,8 +17817,20 @@
         <f>+X5-H5*0.9*Z5*12/1000000</f>
         <v>-39.71412389000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>69815.899999999994</v>
+      </c>
+      <c r="AC5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33398.730000000003</v>
+      </c>
+      <c r="AD5">
+        <f>VLOOKUP($B5,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>29792.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <f>+A5+1</f>
         <v>2</v>
@@ -16473,8 +17915,20 @@
         <f>+X6-H6*0.9*Z6*12/1000000</f>
         <v>-35.536331700000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>64000</v>
+      </c>
+      <c r="AC6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>32432.9</v>
+      </c>
+      <c r="AD6">
+        <f>VLOOKUP($B6,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>32432.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <f>+A6+1</f>
         <v>3</v>
@@ -16559,8 +18013,20 @@
         <f>+X7-H7*0.9*Z7*12/1000000</f>
         <v>-27.814221760000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>71277.8</v>
+      </c>
+      <c r="AC7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>33193.1</v>
+      </c>
+      <c r="AD7">
+        <f>VLOOKUP($B7,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>32440.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <f>+A7+1</f>
         <v>4</v>
@@ -16645,8 +18111,20 @@
         <f>+X8-H8*0.9*Z8*12/1000000</f>
         <v>-15.075208500000016</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>64006.67</v>
+      </c>
+      <c r="AC8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>32998.19</v>
+      </c>
+      <c r="AD8">
+        <f>VLOOKUP($B8,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>32419.29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <f>+A8+1</f>
         <v>5</v>
@@ -16731,44 +18209,56 @@
         <f>+X9-H9*0.9*Z9*12/1000000</f>
         <v>-19.511001790000009</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,2,FALSE)</f>
+        <v>70560</v>
+      </c>
+      <c r="AC9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,3,FALSE)</f>
+        <v>37876</v>
+      </c>
+      <c r="AD9">
+        <f>VLOOKUP($B9,Sheet1!$A$1:$D$118,4,FALSE)</f>
+        <v>37784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" s="66" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="109" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B10" s="110"/>
       <c r="C10" s="110"/>
       <c r="D10" s="111"/>
       <c r="E10" s="65">
-        <f>SUM(E5:E9)</f>
+        <f t="shared" ref="E10:L10" si="0">SUM(E5:E9)</f>
         <v>1064</v>
       </c>
       <c r="F10" s="62">
-        <f>SUM(F5:F9)</f>
+        <f t="shared" si="0"/>
         <v>1058.5</v>
       </c>
       <c r="G10" s="62">
-        <f>SUM(G5:G9)</f>
+        <f t="shared" si="0"/>
         <v>990.75</v>
       </c>
       <c r="H10" s="62">
-        <f>SUM(H5:H9)</f>
+        <f t="shared" si="0"/>
         <v>906.25</v>
       </c>
       <c r="I10" s="113">
-        <f>SUM(I5:I9)</f>
+        <f t="shared" si="0"/>
         <v>714</v>
       </c>
       <c r="J10" s="69">
-        <f>SUM(J5:J9)</f>
+        <f t="shared" si="0"/>
         <v>697</v>
       </c>
       <c r="K10" s="69">
-        <f>SUM(K5:K9)</f>
+        <f t="shared" si="0"/>
         <v>630</v>
       </c>
       <c r="L10" s="69">
-        <f>SUM(L5:L9)</f>
+        <f t="shared" si="0"/>
         <v>585</v>
       </c>
       <c r="M10" s="65">
@@ -16788,35 +18278,35 @@
         <v>33054.853999999999</v>
       </c>
       <c r="Q10" s="63">
-        <f>SUM(Q5:Q9)</f>
+        <f t="shared" ref="Q10:X10" si="1">SUM(Q5:Q9)</f>
         <v>336.2111223</v>
       </c>
       <c r="R10" s="62">
-        <f>SUM(R5:R9)</f>
+        <f t="shared" si="1"/>
         <v>344.75750799999997</v>
       </c>
       <c r="S10" s="62">
-        <f>SUM(S5:S9)</f>
+        <f t="shared" si="1"/>
         <v>326.61493636</v>
       </c>
       <c r="T10" s="62">
-        <f>SUM(T5:T9)</f>
+        <f t="shared" si="1"/>
         <v>384.94188182000005</v>
       </c>
       <c r="U10" s="65">
-        <f>SUM(U5:U9)</f>
+        <f t="shared" si="1"/>
         <v>225.96187500999997</v>
       </c>
       <c r="V10" s="62">
-        <f>SUM(V5:V9)</f>
+        <f t="shared" si="1"/>
         <v>226.14167320999999</v>
       </c>
       <c r="W10" s="62">
-        <f>SUM(W5:W9)</f>
+        <f t="shared" si="1"/>
         <v>218.14113544</v>
       </c>
       <c r="X10" s="62">
-        <f>SUM(X5:X9)</f>
+        <f t="shared" si="1"/>
         <v>279.75662485999999</v>
       </c>
       <c r="Y10" s="183">
@@ -16829,26 +18319,26 @@
         <v>-137.65088764000004</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:27" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:30" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="101"/>
       <c r="B13" s="103"/>
       <c r="C13" s="105"/>
       <c r="D13" s="136"/>
     </row>
-    <row r="14" spans="1:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="102"/>
       <c r="B14" s="104"/>
       <c r="C14" s="106"/>
       <c r="D14" s="137"/>
     </row>
-    <row r="15" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="16"/>
       <c r="B15" s="25"/>
       <c r="C15" s="21"/>
       <c r="D15" s="139"/>
     </row>
-    <row r="16" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16"/>
       <c r="B16" s="25"/>
       <c r="C16" s="21"/>
@@ -16889,4 +18379,1548 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7361AC58-C03B-448E-99A7-6D10A14859D5}">
+  <dimension ref="A1:D118"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="2" max="4" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="282" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="283">
+        <v>34320.699999999997</v>
+      </c>
+      <c r="C1" s="283">
+        <v>25284.1</v>
+      </c>
+      <c r="D1" s="277"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="284" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="285">
+        <v>37020.800000000003</v>
+      </c>
+      <c r="C2" s="285"/>
+      <c r="D2" s="278"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="284" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="285">
+        <v>39547.300000000003</v>
+      </c>
+      <c r="C3" s="285">
+        <v>29595.4</v>
+      </c>
+      <c r="D3" s="278"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="284" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="285">
+        <v>43322.12</v>
+      </c>
+      <c r="C4" s="285">
+        <v>28282.05</v>
+      </c>
+      <c r="D4" s="278"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="284" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="285">
+        <v>43425</v>
+      </c>
+      <c r="C5" s="285">
+        <v>27006</v>
+      </c>
+      <c r="D5" s="278"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="284" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="285">
+        <v>48684.5</v>
+      </c>
+      <c r="C6" s="285">
+        <v>33149</v>
+      </c>
+      <c r="D6" s="286">
+        <v>41083</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="284" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="285">
+        <v>51673.46</v>
+      </c>
+      <c r="C7" s="285">
+        <v>35471.839999999997</v>
+      </c>
+      <c r="D7" s="286">
+        <v>35796.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="284" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="285">
+        <v>53492</v>
+      </c>
+      <c r="C8" s="279">
+        <v>37946</v>
+      </c>
+      <c r="D8" s="278"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="284" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="285">
+        <v>54030</v>
+      </c>
+      <c r="C9" s="285">
+        <v>32462</v>
+      </c>
+      <c r="D9" s="278"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="284" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="285">
+        <v>54030.75</v>
+      </c>
+      <c r="C10" s="279">
+        <v>37375.18</v>
+      </c>
+      <c r="D10" s="278"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="284" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="285">
+        <v>55672.800000000003</v>
+      </c>
+      <c r="C11" s="285">
+        <v>28275.01</v>
+      </c>
+      <c r="D11" s="286">
+        <v>27201.74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="284" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="285">
+        <v>55814.3</v>
+      </c>
+      <c r="C12" s="285">
+        <v>33559.300000000003</v>
+      </c>
+      <c r="D12" s="286"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="284" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="285">
+        <v>56955.7</v>
+      </c>
+      <c r="C13" s="285">
+        <v>34025.4</v>
+      </c>
+      <c r="D13" s="278"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="284" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="285">
+        <v>57058</v>
+      </c>
+      <c r="C14" s="285">
+        <v>33794</v>
+      </c>
+      <c r="D14" s="278"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="284" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="285">
+        <v>57813</v>
+      </c>
+      <c r="C15" s="285">
+        <v>33996</v>
+      </c>
+      <c r="D15" s="278"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="284" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="285">
+        <v>57942.5</v>
+      </c>
+      <c r="C16" s="285">
+        <v>33816.699999999997</v>
+      </c>
+      <c r="D16" s="278"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="284" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="285">
+        <v>58304.7</v>
+      </c>
+      <c r="C17" s="285">
+        <v>33865.300000000003</v>
+      </c>
+      <c r="D17" s="278"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="284" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="285">
+        <v>58547.76</v>
+      </c>
+      <c r="C18" s="285">
+        <v>33882.9</v>
+      </c>
+      <c r="D18" s="286"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="284" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="285">
+        <v>58846</v>
+      </c>
+      <c r="C19" s="285">
+        <v>33749</v>
+      </c>
+      <c r="D19" s="286">
+        <v>33752</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="284" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="285">
+        <v>58998</v>
+      </c>
+      <c r="C20" s="285">
+        <v>34493</v>
+      </c>
+      <c r="D20" s="286"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="284" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="285">
+        <v>59020.54</v>
+      </c>
+      <c r="C21" s="285">
+        <v>32330.47</v>
+      </c>
+      <c r="D21" s="286"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="284" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="285">
+        <v>59546.400000000001</v>
+      </c>
+      <c r="C22" s="279">
+        <v>40899.199999999997</v>
+      </c>
+      <c r="D22" s="286"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="284" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="285">
+        <v>59680</v>
+      </c>
+      <c r="C23" s="285">
+        <v>35145</v>
+      </c>
+      <c r="D23" s="286">
+        <v>34725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="284" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="285">
+        <v>59724.3</v>
+      </c>
+      <c r="C24" s="285">
+        <v>34674</v>
+      </c>
+      <c r="D24" s="286"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="284" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="285">
+        <v>60792</v>
+      </c>
+      <c r="C25" s="285">
+        <v>31304</v>
+      </c>
+      <c r="D25" s="286">
+        <v>31304</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="284" t="s">
+        <v>144</v>
+      </c>
+      <c r="B26" s="285">
+        <v>60952.09</v>
+      </c>
+      <c r="C26" s="279">
+        <v>40538.86</v>
+      </c>
+      <c r="D26" s="286"/>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="284" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="285">
+        <v>61139</v>
+      </c>
+      <c r="C27" s="285">
+        <v>35400</v>
+      </c>
+      <c r="D27" s="286"/>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="284" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="285">
+        <v>62095.39</v>
+      </c>
+      <c r="C28" s="285">
+        <v>36682.58</v>
+      </c>
+      <c r="D28" s="286"/>
+    </row>
+    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="284" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="285">
+        <v>62230.9</v>
+      </c>
+      <c r="C29" s="285">
+        <v>36540.46</v>
+      </c>
+      <c r="D29" s="286"/>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="284" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="285">
+        <v>62562.5</v>
+      </c>
+      <c r="C30" s="285">
+        <v>32474.2</v>
+      </c>
+      <c r="D30" s="286"/>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="284" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="285">
+        <v>62711.98</v>
+      </c>
+      <c r="C31" s="285">
+        <v>33858.480000000003</v>
+      </c>
+      <c r="D31" s="286">
+        <v>33861.980000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="284" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="285">
+        <v>63311.17</v>
+      </c>
+      <c r="C32" s="285">
+        <v>27530.06</v>
+      </c>
+      <c r="D32" s="286">
+        <v>27531.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="284" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="285">
+        <v>63939.02</v>
+      </c>
+      <c r="C33" s="285">
+        <v>35433.07</v>
+      </c>
+      <c r="D33" s="286">
+        <v>35433.33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="284" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="285">
+        <v>63976.29</v>
+      </c>
+      <c r="C34" s="285">
+        <v>33248.379999999997</v>
+      </c>
+      <c r="D34" s="286">
+        <v>33244.14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="284" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="285">
+        <v>64000</v>
+      </c>
+      <c r="C35" s="285">
+        <v>32432.9</v>
+      </c>
+      <c r="D35" s="286">
+        <v>32432.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="284" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="285">
+        <v>64006.67</v>
+      </c>
+      <c r="C36" s="285">
+        <v>32998.19</v>
+      </c>
+      <c r="D36" s="286">
+        <v>32419.29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="284" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="285">
+        <v>64112</v>
+      </c>
+      <c r="C37" s="285">
+        <v>33879</v>
+      </c>
+      <c r="D37" s="286">
+        <v>33878</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="284" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="285">
+        <v>64422.720000000001</v>
+      </c>
+      <c r="C38" s="285">
+        <v>26664.21</v>
+      </c>
+      <c r="D38" s="286">
+        <v>26663.89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="284" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="285">
+        <v>64432</v>
+      </c>
+      <c r="C39" s="285">
+        <v>27615</v>
+      </c>
+      <c r="D39" s="286">
+        <v>27615</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="284" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="285">
+        <v>64917.8</v>
+      </c>
+      <c r="C40" s="285">
+        <v>35583.93</v>
+      </c>
+      <c r="D40" s="286">
+        <v>35564.43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="284" t="s">
+        <v>180</v>
+      </c>
+      <c r="B41" s="285">
+        <v>65141</v>
+      </c>
+      <c r="C41" s="279">
+        <v>41426</v>
+      </c>
+      <c r="D41" s="286"/>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="284" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="285">
+        <v>66408.600000000006</v>
+      </c>
+      <c r="C42" s="285">
+        <v>34754.6</v>
+      </c>
+      <c r="D42" s="286">
+        <v>34770.699999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="284" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" s="285">
+        <v>66469.259999999995</v>
+      </c>
+      <c r="C43" s="279">
+        <v>38960.629999999997</v>
+      </c>
+      <c r="D43" s="286">
+        <v>38962.160000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="284" t="s">
+        <v>153</v>
+      </c>
+      <c r="B44" s="285">
+        <v>67009</v>
+      </c>
+      <c r="C44" s="279">
+        <v>42662</v>
+      </c>
+      <c r="D44" s="286"/>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="284" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="285">
+        <v>67486.2</v>
+      </c>
+      <c r="C45" s="279">
+        <v>42150.28</v>
+      </c>
+      <c r="D45" s="286"/>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="284" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="285">
+        <v>67489</v>
+      </c>
+      <c r="C46" s="285">
+        <v>34009</v>
+      </c>
+      <c r="D46" s="286">
+        <v>34010</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="284" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="285">
+        <v>68051.5</v>
+      </c>
+      <c r="C47" s="285">
+        <v>34219.300000000003</v>
+      </c>
+      <c r="D47" s="286">
+        <v>34165.800000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="284" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="285">
+        <v>68578.7</v>
+      </c>
+      <c r="C48" s="285">
+        <v>35907.67</v>
+      </c>
+      <c r="D48" s="286">
+        <v>35877.86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="284" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="285">
+        <v>69273.83</v>
+      </c>
+      <c r="C49" s="279">
+        <v>38890.199999999997</v>
+      </c>
+      <c r="D49" s="278">
+        <v>38958.03</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="284" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="285">
+        <v>69760.17</v>
+      </c>
+      <c r="C50" s="285">
+        <v>36221.21</v>
+      </c>
+      <c r="D50" s="286">
+        <v>35983.24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="284" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="285">
+        <v>69815.899999999994</v>
+      </c>
+      <c r="C51" s="285">
+        <v>33398.730000000003</v>
+      </c>
+      <c r="D51" s="286">
+        <v>29792.55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="284" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="285">
+        <v>69829</v>
+      </c>
+      <c r="C52" s="279">
+        <v>44652</v>
+      </c>
+      <c r="D52" s="278">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="284" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="285">
+        <v>70260.98</v>
+      </c>
+      <c r="C53" s="285">
+        <v>34593.21</v>
+      </c>
+      <c r="D53" s="286">
+        <v>34502.67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="284" t="s">
+        <v>150</v>
+      </c>
+      <c r="B54" s="285">
+        <v>70274.789999999994</v>
+      </c>
+      <c r="C54" s="279">
+        <v>38957.32</v>
+      </c>
+      <c r="D54" s="286"/>
+    </row>
+    <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="284" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="285">
+        <v>70452</v>
+      </c>
+      <c r="C55" s="279">
+        <v>38467</v>
+      </c>
+      <c r="D55" s="278">
+        <v>38468</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="284" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="285">
+        <v>70560</v>
+      </c>
+      <c r="C56" s="279">
+        <v>37876</v>
+      </c>
+      <c r="D56" s="278">
+        <v>37784</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="284" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="285">
+        <v>70881.47</v>
+      </c>
+      <c r="C57" s="285">
+        <v>33332.400000000001</v>
+      </c>
+      <c r="D57" s="278"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="284" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="285">
+        <v>71007</v>
+      </c>
+      <c r="C58" s="279">
+        <v>39990</v>
+      </c>
+      <c r="D58" s="278">
+        <v>39989</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="284" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="285">
+        <v>71277.8</v>
+      </c>
+      <c r="C59" s="285">
+        <v>33193.1</v>
+      </c>
+      <c r="D59" s="286">
+        <v>32440.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="284" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" s="285">
+        <v>72511.3</v>
+      </c>
+      <c r="C60" s="279">
+        <v>40495.97</v>
+      </c>
+      <c r="D60" s="278">
+        <v>40556.54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="284" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="285">
+        <v>72713</v>
+      </c>
+      <c r="C61" s="285">
+        <v>30867</v>
+      </c>
+      <c r="D61" s="286">
+        <v>30867</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="284" t="s">
+        <v>76</v>
+      </c>
+      <c r="B62" s="285">
+        <v>72924.88</v>
+      </c>
+      <c r="C62" s="285">
+        <v>36550.9</v>
+      </c>
+      <c r="D62" s="286">
+        <v>36189.050000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="284" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" s="285">
+        <v>73118</v>
+      </c>
+      <c r="C63" s="279">
+        <v>38020</v>
+      </c>
+      <c r="D63" s="278">
+        <v>37844</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="284" t="s">
+        <v>9</v>
+      </c>
+      <c r="B64" s="285">
+        <v>73130.100000000006</v>
+      </c>
+      <c r="C64" s="285">
+        <v>31191.1</v>
+      </c>
+      <c r="D64" s="286">
+        <v>30761.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="284" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="285">
+        <v>73222.03</v>
+      </c>
+      <c r="C65" s="285">
+        <v>26098</v>
+      </c>
+      <c r="D65" s="286">
+        <v>26071.8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="284" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="285">
+        <v>73318.94</v>
+      </c>
+      <c r="C66" s="279">
+        <v>47524.13</v>
+      </c>
+      <c r="D66" s="278"/>
+    </row>
+    <row r="67" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="284" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="285">
+        <v>73449.37</v>
+      </c>
+      <c r="C67" s="279">
+        <v>42585.57</v>
+      </c>
+      <c r="D67" s="278">
+        <v>42585.68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="284" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="279">
+        <v>74166</v>
+      </c>
+      <c r="C68" s="279">
+        <v>38822</v>
+      </c>
+      <c r="D68" s="278">
+        <v>38680</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="284" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="279">
+        <v>74247.899999999994</v>
+      </c>
+      <c r="C69" s="285">
+        <v>31854.400000000001</v>
+      </c>
+      <c r="D69" s="278"/>
+    </row>
+    <row r="70" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="284" t="s">
+        <v>49</v>
+      </c>
+      <c r="B70" s="279">
+        <v>74394</v>
+      </c>
+      <c r="C70" s="285">
+        <v>31444</v>
+      </c>
+      <c r="D70" s="286">
+        <v>30002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="284" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71" s="279">
+        <v>74515</v>
+      </c>
+      <c r="C71" s="285">
+        <v>31838</v>
+      </c>
+      <c r="D71" s="286">
+        <v>31836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="284" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="279">
+        <v>75174</v>
+      </c>
+      <c r="C72" s="279">
+        <v>39069</v>
+      </c>
+      <c r="D72" s="278">
+        <v>39158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="284" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="279">
+        <v>75226.009999999995</v>
+      </c>
+      <c r="C73" s="285">
+        <v>32463</v>
+      </c>
+      <c r="D73" s="286">
+        <v>32480.080000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="284" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" s="279">
+        <v>75290</v>
+      </c>
+      <c r="C74" s="285">
+        <v>32078</v>
+      </c>
+      <c r="D74" s="278"/>
+    </row>
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="284" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="279">
+        <v>75752.289999999994</v>
+      </c>
+      <c r="C75" s="285">
+        <v>32279.18</v>
+      </c>
+      <c r="D75" s="278"/>
+    </row>
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" s="279">
+        <v>75891</v>
+      </c>
+      <c r="C76" s="285">
+        <v>31634</v>
+      </c>
+      <c r="D76" s="286">
+        <v>30856</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="284" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="279">
+        <v>75924.53</v>
+      </c>
+      <c r="C77" s="285">
+        <v>32225.06</v>
+      </c>
+      <c r="D77" s="278"/>
+    </row>
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="284" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78" s="279">
+        <v>76246.080000000002</v>
+      </c>
+      <c r="C78" s="285">
+        <v>33129.29</v>
+      </c>
+      <c r="D78" s="286">
+        <v>33522.22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="284" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" s="279">
+        <v>77322.44</v>
+      </c>
+      <c r="C79" s="279">
+        <v>39293.14</v>
+      </c>
+      <c r="D79" s="278">
+        <v>39677.410000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="284" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" s="279">
+        <v>77322.44</v>
+      </c>
+      <c r="C80" s="279">
+        <v>39293.14</v>
+      </c>
+      <c r="D80" s="278">
+        <v>39677.410000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="284" t="s">
+        <v>24</v>
+      </c>
+      <c r="B81" s="279">
+        <v>77344.7</v>
+      </c>
+      <c r="C81" s="285">
+        <v>29266.6</v>
+      </c>
+      <c r="D81" s="286">
+        <v>29156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="284" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="279">
+        <v>77475</v>
+      </c>
+      <c r="C82" s="279">
+        <v>39137</v>
+      </c>
+      <c r="D82" s="278">
+        <v>39022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="284" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="279">
+        <v>78030.48</v>
+      </c>
+      <c r="C83" s="285">
+        <v>31236.41</v>
+      </c>
+      <c r="D83" s="278"/>
+    </row>
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="284" t="s">
+        <v>56</v>
+      </c>
+      <c r="B84" s="279">
+        <v>79399</v>
+      </c>
+      <c r="C84" s="285">
+        <v>30681</v>
+      </c>
+      <c r="D84" s="286">
+        <v>30654</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="284" t="s">
+        <v>100</v>
+      </c>
+      <c r="B85" s="279">
+        <v>79487.88</v>
+      </c>
+      <c r="C85" s="279">
+        <v>37107.01</v>
+      </c>
+      <c r="D85" s="278">
+        <v>37107.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="284" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="279">
+        <v>79507.77</v>
+      </c>
+      <c r="C86" s="285">
+        <v>32014.32</v>
+      </c>
+      <c r="D86" s="286">
+        <v>32014.37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="284" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="279">
+        <v>80005.52</v>
+      </c>
+      <c r="C87" s="285">
+        <v>31791.88</v>
+      </c>
+      <c r="D87" s="286">
+        <v>31809.52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="284" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="279">
+        <v>80347.56</v>
+      </c>
+      <c r="C88" s="279">
+        <v>56494.44</v>
+      </c>
+      <c r="D88" s="278">
+        <v>56500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="284" t="s">
+        <v>137</v>
+      </c>
+      <c r="B89" s="279">
+        <v>81839.8</v>
+      </c>
+      <c r="C89" s="279">
+        <v>43530.43</v>
+      </c>
+      <c r="D89" s="278"/>
+    </row>
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="284" t="s">
+        <v>147</v>
+      </c>
+      <c r="B90" s="279">
+        <v>82754</v>
+      </c>
+      <c r="C90" s="279">
+        <v>42456</v>
+      </c>
+      <c r="D90" s="278">
+        <v>42409</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="284" t="s">
+        <v>140</v>
+      </c>
+      <c r="B91" s="279">
+        <v>83295.199999999997</v>
+      </c>
+      <c r="C91" s="279">
+        <v>44043.4</v>
+      </c>
+      <c r="D91" s="278"/>
+    </row>
+    <row r="92" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="284" t="s">
+        <v>60</v>
+      </c>
+      <c r="B92" s="279">
+        <v>84853.4</v>
+      </c>
+      <c r="C92" s="285">
+        <v>36759.19</v>
+      </c>
+      <c r="D92" s="286">
+        <v>36623.629999999997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="284" t="s">
+        <v>154</v>
+      </c>
+      <c r="B93" s="279">
+        <v>85422.46</v>
+      </c>
+      <c r="C93" s="279">
+        <v>43168.19</v>
+      </c>
+      <c r="D93" s="278">
+        <v>43133.37</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="284" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" s="279">
+        <v>85631.2</v>
+      </c>
+      <c r="C94" s="279">
+        <v>38335.4</v>
+      </c>
+      <c r="D94" s="278">
+        <v>38307.199999999997</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="284" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95" s="279">
+        <v>86311.6</v>
+      </c>
+      <c r="C95" s="279">
+        <v>37838.9</v>
+      </c>
+      <c r="D95" s="278">
+        <v>37710.300000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="284" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="279">
+        <v>86745</v>
+      </c>
+      <c r="C96" s="279">
+        <v>37515</v>
+      </c>
+      <c r="D96" s="278">
+        <v>37521</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="284" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="279">
+        <v>86840.43</v>
+      </c>
+      <c r="C97" s="285">
+        <v>36515.18</v>
+      </c>
+      <c r="D97" s="286">
+        <v>36503.629999999997</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="284" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="279">
+        <v>87077</v>
+      </c>
+      <c r="C98" s="279">
+        <v>37750</v>
+      </c>
+      <c r="D98" s="278">
+        <v>37736</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="284" t="s">
+        <v>118</v>
+      </c>
+      <c r="B99" s="279">
+        <v>88678.11</v>
+      </c>
+      <c r="C99" s="279">
+        <v>39620.01</v>
+      </c>
+      <c r="D99" s="278">
+        <v>39658.050000000003</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="284" t="s">
+        <v>145</v>
+      </c>
+      <c r="B100" s="279">
+        <v>88927</v>
+      </c>
+      <c r="C100" s="279">
+        <v>38564</v>
+      </c>
+      <c r="D100" s="278">
+        <v>38768</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="284" t="s">
+        <v>155</v>
+      </c>
+      <c r="B101" s="279">
+        <v>88997.25</v>
+      </c>
+      <c r="C101" s="279">
+        <v>46311.77</v>
+      </c>
+      <c r="D101" s="278"/>
+    </row>
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="284" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="279">
+        <v>93503</v>
+      </c>
+      <c r="C102" s="279">
+        <v>44836</v>
+      </c>
+      <c r="D102" s="278">
+        <v>44835</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="284" t="s">
+        <v>122</v>
+      </c>
+      <c r="B103" s="279">
+        <v>94940</v>
+      </c>
+      <c r="C103" s="279">
+        <v>45585</v>
+      </c>
+      <c r="D103" s="278">
+        <v>45566</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="284" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" s="279">
+        <v>95849.16</v>
+      </c>
+      <c r="C104" s="279">
+        <v>47782.42</v>
+      </c>
+      <c r="D104" s="278">
+        <v>47637.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="284" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="279">
+        <v>97900</v>
+      </c>
+      <c r="C105" s="279">
+        <v>54200</v>
+      </c>
+      <c r="D105" s="278"/>
+    </row>
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="284" t="s">
+        <v>131</v>
+      </c>
+      <c r="B106" s="279">
+        <v>98120.84</v>
+      </c>
+      <c r="C106" s="279">
+        <v>42094</v>
+      </c>
+      <c r="D106" s="278"/>
+    </row>
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="284" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="279">
+        <v>98342.71</v>
+      </c>
+      <c r="C107" s="279">
+        <v>37684.959999999999</v>
+      </c>
+      <c r="D107" s="278">
+        <v>37666.730000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="284" t="s">
+        <v>158</v>
+      </c>
+      <c r="B108" s="279">
+        <v>98597.75</v>
+      </c>
+      <c r="C108" s="279">
+        <v>56143.61</v>
+      </c>
+      <c r="D108" s="278"/>
+    </row>
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="284" t="s">
+        <v>120</v>
+      </c>
+      <c r="B109" s="279">
+        <v>101836.65</v>
+      </c>
+      <c r="C109" s="279">
+        <v>47335.54</v>
+      </c>
+      <c r="D109" s="278">
+        <v>47052.95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="284" t="s">
+        <v>151</v>
+      </c>
+      <c r="B110" s="279">
+        <v>106098</v>
+      </c>
+      <c r="C110" s="279">
+        <v>41954</v>
+      </c>
+      <c r="D110" s="278">
+        <v>41954</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="284" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="279"/>
+      <c r="C111" s="279">
+        <v>40864.980000000003</v>
+      </c>
+      <c r="D111" s="278">
+        <v>37737.99</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="284" t="s">
+        <v>18</v>
+      </c>
+      <c r="B112" s="279"/>
+      <c r="C112" s="279"/>
+      <c r="D112" s="278"/>
+    </row>
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="284" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113" s="279"/>
+      <c r="C113" s="279"/>
+      <c r="D113" s="278"/>
+    </row>
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="284" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" s="279"/>
+      <c r="C114" s="279"/>
+      <c r="D114" s="278"/>
+    </row>
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="284" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115" s="279"/>
+      <c r="C115" s="279"/>
+      <c r="D115" s="278"/>
+    </row>
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="284" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" s="279"/>
+      <c r="C116" s="279"/>
+      <c r="D116" s="278"/>
+    </row>
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="284" t="s">
+        <v>117</v>
+      </c>
+      <c r="B117" s="279"/>
+      <c r="C117" s="279"/>
+      <c r="D117" s="278"/>
+    </row>
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="287" t="s">
+        <v>129</v>
+      </c>
+      <c r="B118" s="280"/>
+      <c r="C118" s="280"/>
+      <c r="D118" s="281"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>